--- a/documentation/tests/test-maths-page.xlsx
+++ b/documentation/tests/test-maths-page.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="529" uniqueCount="47">
   <si>
     <t xml:space="preserve">Test  ID</t>
   </si>
@@ -190,6 +190,9 @@
     </r>
   </si>
   <si>
+    <t xml:space="preserve">Blackboard image shows with Inspirational quote below Paper 1 and Paper 2 sections</t>
+  </si>
+  <si>
     <t xml:space="preserve">Samsung Galaxy A10</t>
   </si>
 </sst>
@@ -197,8 +200,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="General"/>
   </numFmts>
   <fonts count="6">
     <font>
@@ -377,7 +381,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="41">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -474,11 +478,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -626,7 +626,7 @@
   <dimension ref="A1:L40"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="67" zoomScaleNormal="67" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I27" activeCellId="0" sqref="I27"/>
+      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -761,34 +761,38 @@
         <v>21</v>
       </c>
       <c r="F6" s="15"/>
-      <c r="G6" s="24"/>
-      <c r="H6" s="24"/>
-      <c r="I6" s="25" t="str">
+      <c r="G6" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="H6" s="15"/>
+      <c r="I6" s="24" t="str">
         <f aca="false">IF(G6=E6,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J6" s="25"/>
-      <c r="K6" s="26"/>
-      <c r="L6" s="26"/>
+        <v>Pass</v>
+      </c>
+      <c r="J6" s="24"/>
+      <c r="K6" s="25"/>
+      <c r="L6" s="25"/>
     </row>
     <row r="7" customFormat="false" ht="41.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="21"/>
       <c r="B7" s="22"/>
       <c r="C7" s="22"/>
       <c r="D7" s="23"/>
-      <c r="E7" s="27" t="s">
+      <c r="E7" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="F7" s="27"/>
-      <c r="G7" s="24"/>
-      <c r="H7" s="24"/>
-      <c r="I7" s="25" t="str">
+      <c r="F7" s="26"/>
+      <c r="G7" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="H7" s="26"/>
+      <c r="I7" s="24" t="str">
         <f aca="false">IF(G7=E7,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J7" s="25"/>
-      <c r="K7" s="26"/>
-      <c r="L7" s="26"/>
+        <v>Pass</v>
+      </c>
+      <c r="J7" s="24"/>
+      <c r="K7" s="25"/>
+      <c r="L7" s="25"/>
     </row>
     <row r="8" customFormat="false" ht="41.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="21"/>
@@ -799,34 +803,38 @@
         <v>23</v>
       </c>
       <c r="F8" s="15"/>
-      <c r="G8" s="24"/>
-      <c r="H8" s="24"/>
-      <c r="I8" s="25" t="str">
+      <c r="G8" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="H8" s="15"/>
+      <c r="I8" s="24" t="str">
         <f aca="false">IF(G8=E8,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J8" s="25"/>
-      <c r="K8" s="26"/>
-      <c r="L8" s="26"/>
+        <v>Pass</v>
+      </c>
+      <c r="J8" s="24"/>
+      <c r="K8" s="25"/>
+      <c r="L8" s="25"/>
     </row>
     <row r="9" customFormat="false" ht="41.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="21"/>
       <c r="B9" s="22"/>
       <c r="C9" s="22"/>
       <c r="D9" s="23"/>
-      <c r="E9" s="27" t="s">
+      <c r="E9" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="F9" s="27"/>
-      <c r="G9" s="24"/>
-      <c r="H9" s="24"/>
-      <c r="I9" s="25" t="str">
+      <c r="F9" s="26"/>
+      <c r="G9" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="H9" s="26"/>
+      <c r="I9" s="24" t="str">
         <f aca="false">IF(G9=E9,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J9" s="25"/>
-      <c r="K9" s="26"/>
-      <c r="L9" s="26"/>
+        <v>Pass</v>
+      </c>
+      <c r="J9" s="24"/>
+      <c r="K9" s="25"/>
+      <c r="L9" s="25"/>
     </row>
     <row r="10" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="21"/>
@@ -837,15 +845,17 @@
         <v>25</v>
       </c>
       <c r="F10" s="22"/>
-      <c r="G10" s="24"/>
-      <c r="H10" s="24"/>
-      <c r="I10" s="25" t="str">
+      <c r="G10" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="H10" s="22"/>
+      <c r="I10" s="24" t="str">
         <f aca="false">IF(G10=E10,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J10" s="25"/>
-      <c r="K10" s="26"/>
-      <c r="L10" s="26"/>
+        <v>Pass</v>
+      </c>
+      <c r="J10" s="24"/>
+      <c r="K10" s="25"/>
+      <c r="L10" s="25"/>
     </row>
     <row r="11" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="21" t="n">
@@ -855,22 +865,24 @@
         <v>26</v>
       </c>
       <c r="C11" s="22"/>
-      <c r="D11" s="28" t="s">
+      <c r="D11" s="27" t="s">
         <v>27</v>
       </c>
       <c r="E11" s="15" t="s">
         <v>28</v>
       </c>
       <c r="F11" s="15"/>
-      <c r="G11" s="24"/>
-      <c r="H11" s="24"/>
-      <c r="I11" s="25" t="str">
+      <c r="G11" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="H11" s="15"/>
+      <c r="I11" s="24" t="str">
         <f aca="false">IF(G11=E11,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J11" s="25"/>
-      <c r="K11" s="26"/>
-      <c r="L11" s="26"/>
+        <v>Pass</v>
+      </c>
+      <c r="J11" s="24"/>
+      <c r="K11" s="25"/>
+      <c r="L11" s="25"/>
     </row>
     <row r="12" customFormat="false" ht="41.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="21"/>
@@ -878,22 +890,24 @@
         <v>29</v>
       </c>
       <c r="C12" s="22"/>
-      <c r="D12" s="29" t="s">
+      <c r="D12" s="28" t="s">
         <v>20</v>
       </c>
       <c r="E12" s="15" t="s">
         <v>21</v>
       </c>
       <c r="F12" s="15"/>
-      <c r="G12" s="24"/>
-      <c r="H12" s="24"/>
-      <c r="I12" s="25" t="str">
+      <c r="G12" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="H12" s="15"/>
+      <c r="I12" s="24" t="str">
         <f aca="false">IF(G12=E12,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J12" s="25"/>
-      <c r="K12" s="26"/>
-      <c r="L12" s="26"/>
+        <v>Pass</v>
+      </c>
+      <c r="J12" s="24"/>
+      <c r="K12" s="25"/>
+      <c r="L12" s="25"/>
     </row>
     <row r="13" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="21" t="n">
@@ -903,22 +917,24 @@
         <v>30</v>
       </c>
       <c r="C13" s="22"/>
-      <c r="D13" s="28" t="s">
+      <c r="D13" s="27" t="s">
         <v>31</v>
       </c>
       <c r="E13" s="15" t="s">
         <v>32</v>
       </c>
       <c r="F13" s="15"/>
-      <c r="G13" s="24"/>
-      <c r="H13" s="24"/>
-      <c r="I13" s="25" t="str">
+      <c r="G13" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="H13" s="15"/>
+      <c r="I13" s="24" t="str">
         <f aca="false">IF(G13=E13,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J13" s="25"/>
-      <c r="K13" s="26"/>
-      <c r="L13" s="26"/>
+        <v>Pass</v>
+      </c>
+      <c r="J13" s="24"/>
+      <c r="K13" s="25"/>
+      <c r="L13" s="25"/>
     </row>
     <row r="14" customFormat="false" ht="41.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="21"/>
@@ -926,22 +942,24 @@
         <v>29</v>
       </c>
       <c r="C14" s="22"/>
-      <c r="D14" s="29" t="s">
+      <c r="D14" s="28" t="s">
         <v>20</v>
       </c>
       <c r="E14" s="15" t="s">
         <v>21</v>
       </c>
       <c r="F14" s="15"/>
-      <c r="G14" s="24"/>
-      <c r="H14" s="24"/>
-      <c r="I14" s="25" t="str">
+      <c r="G14" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="H14" s="15"/>
+      <c r="I14" s="24" t="str">
         <f aca="false">IF(G14=E14,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J14" s="25"/>
-      <c r="K14" s="26"/>
-      <c r="L14" s="26"/>
+        <v>Pass</v>
+      </c>
+      <c r="J14" s="24"/>
+      <c r="K14" s="25"/>
+      <c r="L14" s="25"/>
     </row>
     <row r="15" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="21" t="n">
@@ -951,22 +969,24 @@
         <v>33</v>
       </c>
       <c r="C15" s="22"/>
-      <c r="D15" s="28" t="s">
+      <c r="D15" s="27" t="s">
         <v>34</v>
       </c>
       <c r="E15" s="15" t="s">
         <v>35</v>
       </c>
       <c r="F15" s="15"/>
-      <c r="G15" s="24"/>
-      <c r="H15" s="24"/>
-      <c r="I15" s="25" t="str">
+      <c r="G15" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="H15" s="15"/>
+      <c r="I15" s="24" t="str">
         <f aca="false">IF(G15=E15,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J15" s="25"/>
-      <c r="K15" s="26"/>
-      <c r="L15" s="26"/>
+        <v>Pass</v>
+      </c>
+      <c r="J15" s="24"/>
+      <c r="K15" s="25"/>
+      <c r="L15" s="25"/>
     </row>
     <row r="16" customFormat="false" ht="41.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="21" t="n">
@@ -976,22 +996,24 @@
         <v>29</v>
       </c>
       <c r="C16" s="22"/>
-      <c r="D16" s="29" t="s">
+      <c r="D16" s="28" t="s">
         <v>20</v>
       </c>
       <c r="E16" s="15" t="s">
         <v>21</v>
       </c>
       <c r="F16" s="15"/>
-      <c r="G16" s="24"/>
-      <c r="H16" s="24"/>
-      <c r="I16" s="25" t="str">
+      <c r="G16" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="H16" s="15"/>
+      <c r="I16" s="24" t="str">
         <f aca="false">IF(G16=E16,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J16" s="25"/>
-      <c r="K16" s="26"/>
-      <c r="L16" s="26"/>
+        <v>Pass</v>
+      </c>
+      <c r="J16" s="24"/>
+      <c r="K16" s="25"/>
+      <c r="L16" s="25"/>
     </row>
     <row r="17" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="21" t="n">
@@ -1001,22 +1023,24 @@
         <v>36</v>
       </c>
       <c r="C17" s="22"/>
-      <c r="D17" s="28" t="s">
+      <c r="D17" s="27" t="s">
         <v>37</v>
       </c>
       <c r="E17" s="15" t="s">
         <v>38</v>
       </c>
       <c r="F17" s="15"/>
-      <c r="G17" s="24"/>
-      <c r="H17" s="24"/>
-      <c r="I17" s="25" t="str">
+      <c r="G17" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="H17" s="15"/>
+      <c r="I17" s="24" t="str">
         <f aca="false">IF(G17=E17,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J17" s="25"/>
-      <c r="K17" s="26"/>
-      <c r="L17" s="26"/>
+        <v>Pass</v>
+      </c>
+      <c r="J17" s="24"/>
+      <c r="K17" s="25"/>
+      <c r="L17" s="25"/>
     </row>
     <row r="18" customFormat="false" ht="41.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="21" t="n">
@@ -1026,22 +1050,24 @@
         <v>29</v>
       </c>
       <c r="C18" s="22"/>
-      <c r="D18" s="29" t="s">
+      <c r="D18" s="28" t="s">
         <v>20</v>
       </c>
       <c r="E18" s="15" t="s">
         <v>21</v>
       </c>
       <c r="F18" s="15"/>
-      <c r="G18" s="24"/>
-      <c r="H18" s="24"/>
-      <c r="I18" s="25" t="str">
+      <c r="G18" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="H18" s="15"/>
+      <c r="I18" s="24" t="str">
         <f aca="false">IF(G18=E18,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J18" s="25"/>
-      <c r="K18" s="26"/>
-      <c r="L18" s="26"/>
+        <v>Pass</v>
+      </c>
+      <c r="J18" s="24"/>
+      <c r="K18" s="25"/>
+      <c r="L18" s="25"/>
     </row>
     <row r="19" customFormat="false" ht="41.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="21" t="n">
@@ -1051,22 +1077,24 @@
         <v>39</v>
       </c>
       <c r="C19" s="22"/>
-      <c r="D19" s="30" t="s">
+      <c r="D19" s="29" t="s">
         <v>40</v>
       </c>
       <c r="E19" s="22" t="s">
         <v>41</v>
       </c>
       <c r="F19" s="22"/>
-      <c r="G19" s="24"/>
-      <c r="H19" s="24"/>
-      <c r="I19" s="25" t="str">
+      <c r="G19" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="H19" s="22"/>
+      <c r="I19" s="24" t="str">
         <f aca="false">IF(G19=E19,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J19" s="25"/>
-      <c r="K19" s="31"/>
-      <c r="L19" s="31"/>
+        <v>Pass</v>
+      </c>
+      <c r="J19" s="24"/>
+      <c r="K19" s="30"/>
+      <c r="L19" s="30"/>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="8"/>
@@ -1083,64 +1111,64 @@
       <c r="L20" s="8"/>
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="32"/>
+      <c r="A21" s="31"/>
     </row>
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="33" t="s">
+      <c r="A22" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="B22" s="33"/>
-      <c r="C22" s="34"/>
-      <c r="D22" s="34"/>
-      <c r="E22" s="34"/>
-      <c r="F22" s="35" t="s">
+      <c r="B22" s="32"/>
+      <c r="C22" s="33"/>
+      <c r="D22" s="33"/>
+      <c r="E22" s="33"/>
+      <c r="F22" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="G22" s="36" t="s">
+      <c r="G22" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="H22" s="37"/>
+      <c r="H22" s="36"/>
       <c r="I22" s="6"/>
       <c r="J22" s="7"/>
       <c r="L22" s="8"/>
     </row>
     <row r="23" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="33" t="s">
+      <c r="A23" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="B23" s="33"/>
-      <c r="C23" s="34" t="s">
+      <c r="B23" s="32"/>
+      <c r="C23" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="D23" s="34"/>
-      <c r="E23" s="34"/>
-      <c r="F23" s="35" t="s">
+      <c r="D23" s="33"/>
+      <c r="E23" s="33"/>
+      <c r="F23" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="G23" s="38" t="s">
+      <c r="G23" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="H23" s="38"/>
+      <c r="H23" s="37"/>
       <c r="I23" s="10"/>
       <c r="J23" s="6"/>
       <c r="K23" s="6"/>
       <c r="L23" s="8"/>
     </row>
     <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="33" t="s">
+      <c r="A24" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="B24" s="33"/>
-      <c r="C24" s="34" t="s">
+      <c r="B24" s="32"/>
+      <c r="C24" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="D24" s="34"/>
-      <c r="E24" s="34"/>
-      <c r="F24" s="35" t="s">
+      <c r="D24" s="33"/>
+      <c r="E24" s="33"/>
+      <c r="F24" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="G24" s="39"/>
-      <c r="H24" s="40"/>
+      <c r="G24" s="38"/>
+      <c r="H24" s="39"/>
       <c r="I24" s="13"/>
       <c r="J24" s="13"/>
       <c r="K24" s="13"/>
@@ -1205,34 +1233,38 @@
         <v>21</v>
       </c>
       <c r="F27" s="15"/>
-      <c r="G27" s="24"/>
-      <c r="H27" s="24"/>
-      <c r="I27" s="25" t="str">
+      <c r="G27" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="H27" s="15"/>
+      <c r="I27" s="24" t="str">
         <f aca="false">IF(G27=E27,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J27" s="25"/>
-      <c r="K27" s="26"/>
-      <c r="L27" s="26"/>
+        <v>Pass</v>
+      </c>
+      <c r="J27" s="24"/>
+      <c r="K27" s="25"/>
+      <c r="L27" s="25"/>
     </row>
     <row r="28" customFormat="false" ht="41.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="21"/>
       <c r="B28" s="22"/>
       <c r="C28" s="22"/>
       <c r="D28" s="23"/>
-      <c r="E28" s="27" t="s">
+      <c r="E28" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="F28" s="27"/>
-      <c r="G28" s="24"/>
-      <c r="H28" s="24"/>
-      <c r="I28" s="25" t="str">
+      <c r="F28" s="26"/>
+      <c r="G28" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="H28" s="26"/>
+      <c r="I28" s="24" t="str">
         <f aca="false">IF(G28=E28,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J28" s="25"/>
-      <c r="K28" s="26"/>
-      <c r="L28" s="26"/>
+        <v>Pass</v>
+      </c>
+      <c r="J28" s="24"/>
+      <c r="K28" s="25"/>
+      <c r="L28" s="25"/>
     </row>
     <row r="29" customFormat="false" ht="41.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="21"/>
@@ -1243,34 +1275,38 @@
         <v>23</v>
       </c>
       <c r="F29" s="15"/>
-      <c r="G29" s="24"/>
-      <c r="H29" s="24"/>
-      <c r="I29" s="25" t="str">
+      <c r="G29" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="H29" s="15"/>
+      <c r="I29" s="24" t="str">
         <f aca="false">IF(G29=E29,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J29" s="25"/>
-      <c r="K29" s="26"/>
-      <c r="L29" s="26"/>
+        <v>Pass</v>
+      </c>
+      <c r="J29" s="24"/>
+      <c r="K29" s="25"/>
+      <c r="L29" s="25"/>
     </row>
     <row r="30" customFormat="false" ht="41.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="21"/>
       <c r="B30" s="22"/>
       <c r="C30" s="22"/>
       <c r="D30" s="23"/>
-      <c r="E30" s="27" t="s">
+      <c r="E30" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="F30" s="27"/>
-      <c r="G30" s="24"/>
-      <c r="H30" s="24"/>
-      <c r="I30" s="25" t="str">
+      <c r="F30" s="26"/>
+      <c r="G30" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="H30" s="26"/>
+      <c r="I30" s="24" t="str">
         <f aca="false">IF(G30=E30,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J30" s="25"/>
-      <c r="K30" s="26"/>
-      <c r="L30" s="26"/>
+        <v>Pass</v>
+      </c>
+      <c r="J30" s="24"/>
+      <c r="K30" s="25"/>
+      <c r="L30" s="25"/>
     </row>
     <row r="31" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="21"/>
@@ -1281,15 +1317,17 @@
         <v>25</v>
       </c>
       <c r="F31" s="22"/>
-      <c r="G31" s="24"/>
-      <c r="H31" s="24"/>
-      <c r="I31" s="25" t="str">
+      <c r="G31" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="H31" s="22"/>
+      <c r="I31" s="24" t="str">
         <f aca="false">IF(G31=E31,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J31" s="25"/>
-      <c r="K31" s="26"/>
-      <c r="L31" s="26"/>
+        <v>Pass</v>
+      </c>
+      <c r="J31" s="24"/>
+      <c r="K31" s="25"/>
+      <c r="L31" s="25"/>
     </row>
     <row r="32" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="21" t="n">
@@ -1299,22 +1337,24 @@
         <v>26</v>
       </c>
       <c r="C32" s="22"/>
-      <c r="D32" s="28" t="s">
+      <c r="D32" s="27" t="s">
         <v>27</v>
       </c>
       <c r="E32" s="15" t="s">
         <v>28</v>
       </c>
       <c r="F32" s="15"/>
-      <c r="G32" s="24"/>
-      <c r="H32" s="24"/>
-      <c r="I32" s="25" t="str">
+      <c r="G32" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="H32" s="15"/>
+      <c r="I32" s="24" t="str">
         <f aca="false">IF(G32=E32,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J32" s="25"/>
-      <c r="K32" s="26"/>
-      <c r="L32" s="26"/>
+        <v>Pass</v>
+      </c>
+      <c r="J32" s="24"/>
+      <c r="K32" s="25"/>
+      <c r="L32" s="25"/>
     </row>
     <row r="33" customFormat="false" ht="41.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="21"/>
@@ -1322,22 +1362,24 @@
         <v>29</v>
       </c>
       <c r="C33" s="22"/>
-      <c r="D33" s="29" t="s">
+      <c r="D33" s="28" t="s">
         <v>20</v>
       </c>
       <c r="E33" s="15" t="s">
         <v>21</v>
       </c>
       <c r="F33" s="15"/>
-      <c r="G33" s="24"/>
-      <c r="H33" s="24"/>
-      <c r="I33" s="25" t="str">
+      <c r="G33" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="H33" s="15"/>
+      <c r="I33" s="24" t="str">
         <f aca="false">IF(G33=E33,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J33" s="25"/>
-      <c r="K33" s="26"/>
-      <c r="L33" s="26"/>
+        <v>Pass</v>
+      </c>
+      <c r="J33" s="24"/>
+      <c r="K33" s="25"/>
+      <c r="L33" s="25"/>
     </row>
     <row r="34" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="21" t="n">
@@ -1347,22 +1389,24 @@
         <v>30</v>
       </c>
       <c r="C34" s="22"/>
-      <c r="D34" s="28" t="s">
+      <c r="D34" s="27" t="s">
         <v>31</v>
       </c>
       <c r="E34" s="15" t="s">
         <v>32</v>
       </c>
       <c r="F34" s="15"/>
-      <c r="G34" s="24"/>
-      <c r="H34" s="24"/>
-      <c r="I34" s="25" t="str">
+      <c r="G34" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="H34" s="15"/>
+      <c r="I34" s="24" t="str">
         <f aca="false">IF(G34=E34,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J34" s="25"/>
-      <c r="K34" s="26"/>
-      <c r="L34" s="26"/>
+        <v>Pass</v>
+      </c>
+      <c r="J34" s="24"/>
+      <c r="K34" s="25"/>
+      <c r="L34" s="25"/>
     </row>
     <row r="35" customFormat="false" ht="41.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="21"/>
@@ -1370,22 +1414,24 @@
         <v>29</v>
       </c>
       <c r="C35" s="22"/>
-      <c r="D35" s="29" t="s">
+      <c r="D35" s="28" t="s">
         <v>20</v>
       </c>
       <c r="E35" s="15" t="s">
         <v>21</v>
       </c>
       <c r="F35" s="15"/>
-      <c r="G35" s="24"/>
-      <c r="H35" s="24"/>
-      <c r="I35" s="25" t="str">
+      <c r="G35" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="H35" s="15"/>
+      <c r="I35" s="24" t="str">
         <f aca="false">IF(G35=E35,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J35" s="25"/>
-      <c r="K35" s="26"/>
-      <c r="L35" s="26"/>
+        <v>Pass</v>
+      </c>
+      <c r="J35" s="24"/>
+      <c r="K35" s="25"/>
+      <c r="L35" s="25"/>
     </row>
     <row r="36" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="21" t="n">
@@ -1395,22 +1441,24 @@
         <v>33</v>
       </c>
       <c r="C36" s="22"/>
-      <c r="D36" s="28" t="s">
+      <c r="D36" s="27" t="s">
         <v>34</v>
       </c>
       <c r="E36" s="15" t="s">
         <v>35</v>
       </c>
       <c r="F36" s="15"/>
-      <c r="G36" s="24"/>
-      <c r="H36" s="24"/>
-      <c r="I36" s="25" t="str">
+      <c r="G36" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="H36" s="15"/>
+      <c r="I36" s="24" t="str">
         <f aca="false">IF(G36=E36,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J36" s="25"/>
-      <c r="K36" s="26"/>
-      <c r="L36" s="26"/>
+        <v>Pass</v>
+      </c>
+      <c r="J36" s="24"/>
+      <c r="K36" s="25"/>
+      <c r="L36" s="25"/>
     </row>
     <row r="37" customFormat="false" ht="41.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="21" t="n">
@@ -1420,22 +1468,24 @@
         <v>29</v>
       </c>
       <c r="C37" s="22"/>
-      <c r="D37" s="29" t="s">
+      <c r="D37" s="28" t="s">
         <v>20</v>
       </c>
       <c r="E37" s="15" t="s">
         <v>21</v>
       </c>
       <c r="F37" s="15"/>
-      <c r="G37" s="24"/>
-      <c r="H37" s="24"/>
-      <c r="I37" s="25" t="str">
+      <c r="G37" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="H37" s="15"/>
+      <c r="I37" s="24" t="str">
         <f aca="false">IF(G37=E37,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J37" s="25"/>
-      <c r="K37" s="26"/>
-      <c r="L37" s="26"/>
+        <v>Pass</v>
+      </c>
+      <c r="J37" s="24"/>
+      <c r="K37" s="25"/>
+      <c r="L37" s="25"/>
     </row>
     <row r="38" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="21" t="n">
@@ -1445,22 +1495,24 @@
         <v>36</v>
       </c>
       <c r="C38" s="22"/>
-      <c r="D38" s="28" t="s">
+      <c r="D38" s="27" t="s">
         <v>37</v>
       </c>
       <c r="E38" s="15" t="s">
         <v>38</v>
       </c>
       <c r="F38" s="15"/>
-      <c r="G38" s="24"/>
-      <c r="H38" s="24"/>
-      <c r="I38" s="25" t="str">
+      <c r="G38" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="H38" s="15"/>
+      <c r="I38" s="24" t="str">
         <f aca="false">IF(G38=E38,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J38" s="25"/>
-      <c r="K38" s="26"/>
-      <c r="L38" s="26"/>
+        <v>Pass</v>
+      </c>
+      <c r="J38" s="24"/>
+      <c r="K38" s="25"/>
+      <c r="L38" s="25"/>
     </row>
     <row r="39" customFormat="false" ht="41.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="21" t="n">
@@ -1470,22 +1522,24 @@
         <v>29</v>
       </c>
       <c r="C39" s="22"/>
-      <c r="D39" s="29" t="s">
+      <c r="D39" s="28" t="s">
         <v>20</v>
       </c>
       <c r="E39" s="15" t="s">
         <v>21</v>
       </c>
       <c r="F39" s="15"/>
-      <c r="G39" s="24"/>
-      <c r="H39" s="24"/>
-      <c r="I39" s="25" t="str">
+      <c r="G39" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="H39" s="15"/>
+      <c r="I39" s="24" t="str">
         <f aca="false">IF(G39=E39,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J39" s="25"/>
-      <c r="K39" s="26"/>
-      <c r="L39" s="26"/>
+        <v>Pass</v>
+      </c>
+      <c r="J39" s="24"/>
+      <c r="K39" s="25"/>
+      <c r="L39" s="25"/>
     </row>
     <row r="40" customFormat="false" ht="41.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="21" t="n">
@@ -1495,22 +1549,24 @@
         <v>39</v>
       </c>
       <c r="C40" s="22"/>
-      <c r="D40" s="30" t="s">
+      <c r="D40" s="29" t="s">
         <v>40</v>
       </c>
       <c r="E40" s="22" t="s">
         <v>41</v>
       </c>
       <c r="F40" s="22"/>
-      <c r="G40" s="24"/>
-      <c r="H40" s="24"/>
-      <c r="I40" s="25" t="str">
+      <c r="G40" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="H40" s="22"/>
+      <c r="I40" s="24" t="str">
         <f aca="false">IF(G40=E40,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J40" s="25"/>
-      <c r="K40" s="31"/>
-      <c r="L40" s="31"/>
+        <v>Pass</v>
+      </c>
+      <c r="J40" s="24"/>
+      <c r="K40" s="30"/>
+      <c r="L40" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="168">
@@ -1701,7 +1757,7 @@
   <dimension ref="A1:L40"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="67" zoomScaleNormal="67" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I27" activeCellId="0" sqref="I27"/>
+      <selection pane="topLeft" activeCell="G27" activeCellId="0" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1809,10 +1865,10 @@
         <v>16</v>
       </c>
       <c r="H5" s="19"/>
-      <c r="I5" s="41" t="s">
+      <c r="I5" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="J5" s="41"/>
+      <c r="J5" s="40"/>
       <c r="K5" s="17" t="s">
         <v>18</v>
       </c>
@@ -1833,34 +1889,38 @@
         <v>21</v>
       </c>
       <c r="F6" s="15"/>
-      <c r="G6" s="24"/>
-      <c r="H6" s="24"/>
-      <c r="I6" s="25" t="str">
+      <c r="G6" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="H6" s="15"/>
+      <c r="I6" s="24" t="str">
         <f aca="false">IF(G6=E6,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J6" s="25"/>
-      <c r="K6" s="26"/>
-      <c r="L6" s="26"/>
+        <v>Pass</v>
+      </c>
+      <c r="J6" s="24"/>
+      <c r="K6" s="25"/>
+      <c r="L6" s="25"/>
     </row>
     <row r="7" customFormat="false" ht="41.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="21"/>
       <c r="B7" s="22"/>
       <c r="C7" s="22"/>
       <c r="D7" s="23"/>
-      <c r="E7" s="27" t="s">
+      <c r="E7" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="F7" s="27"/>
-      <c r="G7" s="24"/>
-      <c r="H7" s="24"/>
-      <c r="I7" s="25" t="str">
+      <c r="F7" s="26"/>
+      <c r="G7" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="H7" s="26"/>
+      <c r="I7" s="24" t="str">
         <f aca="false">IF(G7=E7,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J7" s="25"/>
-      <c r="K7" s="26"/>
-      <c r="L7" s="26"/>
+        <v>Pass</v>
+      </c>
+      <c r="J7" s="24"/>
+      <c r="K7" s="25"/>
+      <c r="L7" s="25"/>
     </row>
     <row r="8" customFormat="false" ht="41.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="21"/>
@@ -1871,34 +1931,38 @@
         <v>23</v>
       </c>
       <c r="F8" s="15"/>
-      <c r="G8" s="24"/>
-      <c r="H8" s="24"/>
-      <c r="I8" s="25" t="str">
+      <c r="G8" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="H8" s="15"/>
+      <c r="I8" s="24" t="str">
         <f aca="false">IF(G8=E8,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J8" s="25"/>
-      <c r="K8" s="26"/>
-      <c r="L8" s="26"/>
+        <v>Pass</v>
+      </c>
+      <c r="J8" s="24"/>
+      <c r="K8" s="25"/>
+      <c r="L8" s="25"/>
     </row>
     <row r="9" customFormat="false" ht="41.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="21"/>
       <c r="B9" s="22"/>
       <c r="C9" s="22"/>
       <c r="D9" s="23"/>
-      <c r="E9" s="27" t="s">
+      <c r="E9" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="F9" s="27"/>
-      <c r="G9" s="24"/>
-      <c r="H9" s="24"/>
-      <c r="I9" s="25" t="str">
+      <c r="F9" s="26"/>
+      <c r="G9" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="H9" s="26"/>
+      <c r="I9" s="24" t="str">
         <f aca="false">IF(G9=E9,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J9" s="25"/>
-      <c r="K9" s="26"/>
-      <c r="L9" s="26"/>
+        <v>Pass</v>
+      </c>
+      <c r="J9" s="24"/>
+      <c r="K9" s="25"/>
+      <c r="L9" s="25"/>
     </row>
     <row r="10" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="21"/>
@@ -1909,15 +1973,17 @@
         <v>25</v>
       </c>
       <c r="F10" s="22"/>
-      <c r="G10" s="24"/>
-      <c r="H10" s="24"/>
-      <c r="I10" s="25" t="str">
+      <c r="G10" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="H10" s="22"/>
+      <c r="I10" s="24" t="str">
         <f aca="false">IF(G10=E10,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J10" s="25"/>
-      <c r="K10" s="26"/>
-      <c r="L10" s="26"/>
+        <v>Pass</v>
+      </c>
+      <c r="J10" s="24"/>
+      <c r="K10" s="25"/>
+      <c r="L10" s="25"/>
     </row>
     <row r="11" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="21" t="n">
@@ -1927,22 +1993,24 @@
         <v>26</v>
       </c>
       <c r="C11" s="22"/>
-      <c r="D11" s="28" t="s">
+      <c r="D11" s="27" t="s">
         <v>27</v>
       </c>
       <c r="E11" s="15" t="s">
         <v>28</v>
       </c>
       <c r="F11" s="15"/>
-      <c r="G11" s="24"/>
-      <c r="H11" s="24"/>
-      <c r="I11" s="25" t="str">
+      <c r="G11" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="H11" s="15"/>
+      <c r="I11" s="24" t="str">
         <f aca="false">IF(G11=E11,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J11" s="25"/>
-      <c r="K11" s="26"/>
-      <c r="L11" s="26"/>
+        <v>Pass</v>
+      </c>
+      <c r="J11" s="24"/>
+      <c r="K11" s="25"/>
+      <c r="L11" s="25"/>
     </row>
     <row r="12" customFormat="false" ht="41.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="21"/>
@@ -1950,22 +2018,24 @@
         <v>29</v>
       </c>
       <c r="C12" s="22"/>
-      <c r="D12" s="29" t="s">
+      <c r="D12" s="28" t="s">
         <v>20</v>
       </c>
       <c r="E12" s="15" t="s">
         <v>21</v>
       </c>
       <c r="F12" s="15"/>
-      <c r="G12" s="24"/>
-      <c r="H12" s="24"/>
-      <c r="I12" s="25" t="str">
+      <c r="G12" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="H12" s="15"/>
+      <c r="I12" s="24" t="str">
         <f aca="false">IF(G12=E12,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J12" s="25"/>
-      <c r="K12" s="26"/>
-      <c r="L12" s="26"/>
+        <v>Pass</v>
+      </c>
+      <c r="J12" s="24"/>
+      <c r="K12" s="25"/>
+      <c r="L12" s="25"/>
     </row>
     <row r="13" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="21" t="n">
@@ -1975,22 +2045,24 @@
         <v>30</v>
       </c>
       <c r="C13" s="22"/>
-      <c r="D13" s="28" t="s">
+      <c r="D13" s="27" t="s">
         <v>31</v>
       </c>
       <c r="E13" s="15" t="s">
         <v>32</v>
       </c>
       <c r="F13" s="15"/>
-      <c r="G13" s="24"/>
-      <c r="H13" s="24"/>
-      <c r="I13" s="25" t="str">
+      <c r="G13" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="H13" s="15"/>
+      <c r="I13" s="24" t="str">
         <f aca="false">IF(G13=E13,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J13" s="25"/>
-      <c r="K13" s="26"/>
-      <c r="L13" s="26"/>
+        <v>Pass</v>
+      </c>
+      <c r="J13" s="24"/>
+      <c r="K13" s="25"/>
+      <c r="L13" s="25"/>
     </row>
     <row r="14" customFormat="false" ht="41.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="21"/>
@@ -1998,22 +2070,24 @@
         <v>29</v>
       </c>
       <c r="C14" s="22"/>
-      <c r="D14" s="29" t="s">
+      <c r="D14" s="28" t="s">
         <v>20</v>
       </c>
       <c r="E14" s="15" t="s">
         <v>21</v>
       </c>
       <c r="F14" s="15"/>
-      <c r="G14" s="24"/>
-      <c r="H14" s="24"/>
-      <c r="I14" s="25" t="str">
+      <c r="G14" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="H14" s="15"/>
+      <c r="I14" s="24" t="str">
         <f aca="false">IF(G14=E14,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J14" s="25"/>
-      <c r="K14" s="26"/>
-      <c r="L14" s="26"/>
+        <v>Pass</v>
+      </c>
+      <c r="J14" s="24"/>
+      <c r="K14" s="25"/>
+      <c r="L14" s="25"/>
     </row>
     <row r="15" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="21" t="n">
@@ -2023,22 +2097,24 @@
         <v>33</v>
       </c>
       <c r="C15" s="22"/>
-      <c r="D15" s="28" t="s">
+      <c r="D15" s="27" t="s">
         <v>34</v>
       </c>
       <c r="E15" s="15" t="s">
         <v>35</v>
       </c>
       <c r="F15" s="15"/>
-      <c r="G15" s="24"/>
-      <c r="H15" s="24"/>
-      <c r="I15" s="25" t="str">
+      <c r="G15" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="H15" s="15"/>
+      <c r="I15" s="24" t="str">
         <f aca="false">IF(G15=E15,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J15" s="25"/>
-      <c r="K15" s="26"/>
-      <c r="L15" s="26"/>
+        <v>Pass</v>
+      </c>
+      <c r="J15" s="24"/>
+      <c r="K15" s="25"/>
+      <c r="L15" s="25"/>
     </row>
     <row r="16" customFormat="false" ht="41.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="21" t="n">
@@ -2048,22 +2124,24 @@
         <v>29</v>
       </c>
       <c r="C16" s="22"/>
-      <c r="D16" s="29" t="s">
+      <c r="D16" s="28" t="s">
         <v>20</v>
       </c>
       <c r="E16" s="15" t="s">
         <v>21</v>
       </c>
       <c r="F16" s="15"/>
-      <c r="G16" s="24"/>
-      <c r="H16" s="24"/>
-      <c r="I16" s="25" t="str">
+      <c r="G16" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="H16" s="15"/>
+      <c r="I16" s="24" t="str">
         <f aca="false">IF(G16=E16,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J16" s="25"/>
-      <c r="K16" s="26"/>
-      <c r="L16" s="26"/>
+        <v>Pass</v>
+      </c>
+      <c r="J16" s="24"/>
+      <c r="K16" s="25"/>
+      <c r="L16" s="25"/>
     </row>
     <row r="17" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="21" t="n">
@@ -2073,22 +2151,24 @@
         <v>36</v>
       </c>
       <c r="C17" s="22"/>
-      <c r="D17" s="28" t="s">
+      <c r="D17" s="27" t="s">
         <v>37</v>
       </c>
       <c r="E17" s="15" t="s">
         <v>38</v>
       </c>
       <c r="F17" s="15"/>
-      <c r="G17" s="24"/>
-      <c r="H17" s="24"/>
-      <c r="I17" s="25" t="str">
+      <c r="G17" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="H17" s="15"/>
+      <c r="I17" s="24" t="str">
         <f aca="false">IF(G17=E17,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J17" s="25"/>
-      <c r="K17" s="26"/>
-      <c r="L17" s="26"/>
+        <v>Pass</v>
+      </c>
+      <c r="J17" s="24"/>
+      <c r="K17" s="25"/>
+      <c r="L17" s="25"/>
     </row>
     <row r="18" customFormat="false" ht="41.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="21" t="n">
@@ -2098,22 +2178,24 @@
         <v>29</v>
       </c>
       <c r="C18" s="22"/>
-      <c r="D18" s="29" t="s">
+      <c r="D18" s="28" t="s">
         <v>20</v>
       </c>
       <c r="E18" s="15" t="s">
         <v>21</v>
       </c>
       <c r="F18" s="15"/>
-      <c r="G18" s="24"/>
-      <c r="H18" s="24"/>
-      <c r="I18" s="25" t="str">
+      <c r="G18" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="H18" s="15"/>
+      <c r="I18" s="24" t="str">
         <f aca="false">IF(G18=E18,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J18" s="25"/>
-      <c r="K18" s="26"/>
-      <c r="L18" s="26"/>
+        <v>Pass</v>
+      </c>
+      <c r="J18" s="24"/>
+      <c r="K18" s="25"/>
+      <c r="L18" s="25"/>
     </row>
     <row r="19" customFormat="false" ht="41.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="21" t="n">
@@ -2123,22 +2205,24 @@
         <v>39</v>
       </c>
       <c r="C19" s="22"/>
-      <c r="D19" s="30" t="s">
+      <c r="D19" s="29" t="s">
         <v>40</v>
       </c>
       <c r="E19" s="22" t="s">
         <v>41</v>
       </c>
       <c r="F19" s="22"/>
-      <c r="G19" s="24"/>
-      <c r="H19" s="24"/>
-      <c r="I19" s="25" t="str">
+      <c r="G19" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="H19" s="22"/>
+      <c r="I19" s="24" t="str">
         <f aca="false">IF(G19=E19,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J19" s="25"/>
-      <c r="K19" s="31"/>
-      <c r="L19" s="31"/>
+        <v>Pass</v>
+      </c>
+      <c r="J19" s="24"/>
+      <c r="K19" s="30"/>
+      <c r="L19" s="30"/>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="8"/>
@@ -2155,64 +2239,64 @@
       <c r="L20" s="8"/>
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="32"/>
+      <c r="A21" s="31"/>
     </row>
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="33" t="s">
+      <c r="A22" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="B22" s="33"/>
-      <c r="C22" s="34"/>
-      <c r="D22" s="34"/>
-      <c r="E22" s="34"/>
-      <c r="F22" s="35" t="s">
+      <c r="B22" s="32"/>
+      <c r="C22" s="33"/>
+      <c r="D22" s="33"/>
+      <c r="E22" s="33"/>
+      <c r="F22" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="G22" s="36" t="s">
+      <c r="G22" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="H22" s="37"/>
+      <c r="H22" s="36"/>
       <c r="I22" s="6"/>
       <c r="J22" s="7"/>
       <c r="L22" s="8"/>
     </row>
     <row r="23" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="33" t="s">
+      <c r="A23" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="B23" s="33"/>
-      <c r="C23" s="34" t="s">
+      <c r="B23" s="32"/>
+      <c r="C23" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="D23" s="34"/>
-      <c r="E23" s="34"/>
-      <c r="F23" s="35" t="s">
+      <c r="D23" s="33"/>
+      <c r="E23" s="33"/>
+      <c r="F23" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="G23" s="38" t="s">
+      <c r="G23" s="37" t="s">
         <v>43</v>
       </c>
-      <c r="H23" s="38"/>
+      <c r="H23" s="37"/>
       <c r="I23" s="10"/>
       <c r="J23" s="6"/>
       <c r="K23" s="6"/>
       <c r="L23" s="8"/>
     </row>
     <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="33" t="s">
+      <c r="A24" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="B24" s="33"/>
-      <c r="C24" s="34" t="s">
+      <c r="B24" s="32"/>
+      <c r="C24" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="D24" s="34"/>
-      <c r="E24" s="34"/>
-      <c r="F24" s="35" t="s">
+      <c r="D24" s="33"/>
+      <c r="E24" s="33"/>
+      <c r="F24" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="G24" s="39"/>
-      <c r="H24" s="40"/>
+      <c r="G24" s="38"/>
+      <c r="H24" s="39"/>
       <c r="I24" s="13"/>
       <c r="J24" s="13"/>
       <c r="K24" s="13"/>
@@ -2253,10 +2337,10 @@
         <v>16</v>
       </c>
       <c r="H26" s="19"/>
-      <c r="I26" s="41" t="s">
+      <c r="I26" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="J26" s="41"/>
+      <c r="J26" s="40"/>
       <c r="K26" s="17" t="s">
         <v>18</v>
       </c>
@@ -2277,34 +2361,38 @@
         <v>21</v>
       </c>
       <c r="F27" s="15"/>
-      <c r="G27" s="24"/>
-      <c r="H27" s="24"/>
-      <c r="I27" s="25" t="str">
+      <c r="G27" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="H27" s="15"/>
+      <c r="I27" s="24" t="str">
         <f aca="false">IF(G27=E27,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J27" s="25"/>
-      <c r="K27" s="26"/>
-      <c r="L27" s="26"/>
+        <v>Pass</v>
+      </c>
+      <c r="J27" s="24"/>
+      <c r="K27" s="25"/>
+      <c r="L27" s="25"/>
     </row>
     <row r="28" customFormat="false" ht="41.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="21"/>
       <c r="B28" s="22"/>
       <c r="C28" s="22"/>
       <c r="D28" s="23"/>
-      <c r="E28" s="27" t="s">
+      <c r="E28" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="F28" s="27"/>
-      <c r="G28" s="24"/>
-      <c r="H28" s="24"/>
-      <c r="I28" s="25" t="str">
+      <c r="F28" s="26"/>
+      <c r="G28" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="H28" s="26"/>
+      <c r="I28" s="24" t="str">
         <f aca="false">IF(G28=E28,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J28" s="25"/>
-      <c r="K28" s="26"/>
-      <c r="L28" s="26"/>
+        <v>Pass</v>
+      </c>
+      <c r="J28" s="24"/>
+      <c r="K28" s="25"/>
+      <c r="L28" s="25"/>
     </row>
     <row r="29" customFormat="false" ht="41.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="21"/>
@@ -2315,34 +2403,38 @@
         <v>23</v>
       </c>
       <c r="F29" s="15"/>
-      <c r="G29" s="24"/>
-      <c r="H29" s="24"/>
-      <c r="I29" s="25" t="str">
+      <c r="G29" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="H29" s="15"/>
+      <c r="I29" s="24" t="str">
         <f aca="false">IF(G29=E29,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J29" s="25"/>
-      <c r="K29" s="26"/>
-      <c r="L29" s="26"/>
+        <v>Pass</v>
+      </c>
+      <c r="J29" s="24"/>
+      <c r="K29" s="25"/>
+      <c r="L29" s="25"/>
     </row>
     <row r="30" customFormat="false" ht="41.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="21"/>
       <c r="B30" s="22"/>
       <c r="C30" s="22"/>
       <c r="D30" s="23"/>
-      <c r="E30" s="27" t="s">
+      <c r="E30" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="F30" s="27"/>
-      <c r="G30" s="24"/>
-      <c r="H30" s="24"/>
-      <c r="I30" s="25" t="str">
+      <c r="F30" s="26"/>
+      <c r="G30" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="H30" s="26"/>
+      <c r="I30" s="24" t="str">
         <f aca="false">IF(G30=E30,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J30" s="25"/>
-      <c r="K30" s="26"/>
-      <c r="L30" s="26"/>
+        <v>Pass</v>
+      </c>
+      <c r="J30" s="24"/>
+      <c r="K30" s="25"/>
+      <c r="L30" s="25"/>
     </row>
     <row r="31" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="21"/>
@@ -2353,15 +2445,17 @@
         <v>25</v>
       </c>
       <c r="F31" s="22"/>
-      <c r="G31" s="24"/>
-      <c r="H31" s="24"/>
-      <c r="I31" s="25" t="str">
+      <c r="G31" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="H31" s="22"/>
+      <c r="I31" s="24" t="str">
         <f aca="false">IF(G31=E31,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J31" s="25"/>
-      <c r="K31" s="26"/>
-      <c r="L31" s="26"/>
+        <v>Pass</v>
+      </c>
+      <c r="J31" s="24"/>
+      <c r="K31" s="25"/>
+      <c r="L31" s="25"/>
     </row>
     <row r="32" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="21" t="n">
@@ -2371,22 +2465,24 @@
         <v>26</v>
       </c>
       <c r="C32" s="22"/>
-      <c r="D32" s="28" t="s">
+      <c r="D32" s="27" t="s">
         <v>27</v>
       </c>
       <c r="E32" s="15" t="s">
         <v>28</v>
       </c>
       <c r="F32" s="15"/>
-      <c r="G32" s="24"/>
-      <c r="H32" s="24"/>
-      <c r="I32" s="25" t="str">
+      <c r="G32" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="H32" s="15"/>
+      <c r="I32" s="24" t="str">
         <f aca="false">IF(G32=E32,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J32" s="25"/>
-      <c r="K32" s="26"/>
-      <c r="L32" s="26"/>
+        <v>Pass</v>
+      </c>
+      <c r="J32" s="24"/>
+      <c r="K32" s="25"/>
+      <c r="L32" s="25"/>
     </row>
     <row r="33" customFormat="false" ht="41.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="21"/>
@@ -2394,22 +2490,24 @@
         <v>29</v>
       </c>
       <c r="C33" s="22"/>
-      <c r="D33" s="29" t="s">
+      <c r="D33" s="28" t="s">
         <v>20</v>
       </c>
       <c r="E33" s="15" t="s">
         <v>21</v>
       </c>
       <c r="F33" s="15"/>
-      <c r="G33" s="24"/>
-      <c r="H33" s="24"/>
-      <c r="I33" s="25" t="str">
+      <c r="G33" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="H33" s="15"/>
+      <c r="I33" s="24" t="str">
         <f aca="false">IF(G33=E33,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J33" s="25"/>
-      <c r="K33" s="26"/>
-      <c r="L33" s="26"/>
+        <v>Pass</v>
+      </c>
+      <c r="J33" s="24"/>
+      <c r="K33" s="25"/>
+      <c r="L33" s="25"/>
     </row>
     <row r="34" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="21" t="n">
@@ -2419,22 +2517,24 @@
         <v>30</v>
       </c>
       <c r="C34" s="22"/>
-      <c r="D34" s="28" t="s">
+      <c r="D34" s="27" t="s">
         <v>31</v>
       </c>
       <c r="E34" s="15" t="s">
         <v>32</v>
       </c>
       <c r="F34" s="15"/>
-      <c r="G34" s="24"/>
-      <c r="H34" s="24"/>
-      <c r="I34" s="25" t="str">
+      <c r="G34" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="H34" s="15"/>
+      <c r="I34" s="24" t="str">
         <f aca="false">IF(G34=E34,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J34" s="25"/>
-      <c r="K34" s="26"/>
-      <c r="L34" s="26"/>
+        <v>Pass</v>
+      </c>
+      <c r="J34" s="24"/>
+      <c r="K34" s="25"/>
+      <c r="L34" s="25"/>
     </row>
     <row r="35" customFormat="false" ht="41.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="21"/>
@@ -2442,22 +2542,24 @@
         <v>29</v>
       </c>
       <c r="C35" s="22"/>
-      <c r="D35" s="29" t="s">
+      <c r="D35" s="28" t="s">
         <v>20</v>
       </c>
       <c r="E35" s="15" t="s">
         <v>21</v>
       </c>
       <c r="F35" s="15"/>
-      <c r="G35" s="24"/>
-      <c r="H35" s="24"/>
-      <c r="I35" s="25" t="str">
+      <c r="G35" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="H35" s="15"/>
+      <c r="I35" s="24" t="str">
         <f aca="false">IF(G35=E35,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J35" s="25"/>
-      <c r="K35" s="26"/>
-      <c r="L35" s="26"/>
+        <v>Pass</v>
+      </c>
+      <c r="J35" s="24"/>
+      <c r="K35" s="25"/>
+      <c r="L35" s="25"/>
     </row>
     <row r="36" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="21" t="n">
@@ -2467,22 +2569,24 @@
         <v>33</v>
       </c>
       <c r="C36" s="22"/>
-      <c r="D36" s="28" t="s">
+      <c r="D36" s="27" t="s">
         <v>34</v>
       </c>
       <c r="E36" s="15" t="s">
         <v>35</v>
       </c>
       <c r="F36" s="15"/>
-      <c r="G36" s="24"/>
-      <c r="H36" s="24"/>
-      <c r="I36" s="25" t="str">
+      <c r="G36" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="H36" s="15"/>
+      <c r="I36" s="24" t="str">
         <f aca="false">IF(G36=E36,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J36" s="25"/>
-      <c r="K36" s="26"/>
-      <c r="L36" s="26"/>
+        <v>Pass</v>
+      </c>
+      <c r="J36" s="24"/>
+      <c r="K36" s="25"/>
+      <c r="L36" s="25"/>
     </row>
     <row r="37" customFormat="false" ht="41.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="21" t="n">
@@ -2492,22 +2596,24 @@
         <v>29</v>
       </c>
       <c r="C37" s="22"/>
-      <c r="D37" s="29" t="s">
+      <c r="D37" s="28" t="s">
         <v>20</v>
       </c>
       <c r="E37" s="15" t="s">
         <v>21</v>
       </c>
       <c r="F37" s="15"/>
-      <c r="G37" s="24"/>
-      <c r="H37" s="24"/>
-      <c r="I37" s="25" t="str">
+      <c r="G37" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="H37" s="15"/>
+      <c r="I37" s="24" t="str">
         <f aca="false">IF(G37=E37,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J37" s="25"/>
-      <c r="K37" s="26"/>
-      <c r="L37" s="26"/>
+        <v>Pass</v>
+      </c>
+      <c r="J37" s="24"/>
+      <c r="K37" s="25"/>
+      <c r="L37" s="25"/>
     </row>
     <row r="38" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="21" t="n">
@@ -2517,22 +2623,24 @@
         <v>36</v>
       </c>
       <c r="C38" s="22"/>
-      <c r="D38" s="28" t="s">
+      <c r="D38" s="27" t="s">
         <v>37</v>
       </c>
       <c r="E38" s="15" t="s">
         <v>38</v>
       </c>
       <c r="F38" s="15"/>
-      <c r="G38" s="24"/>
-      <c r="H38" s="24"/>
-      <c r="I38" s="25" t="str">
+      <c r="G38" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="H38" s="15"/>
+      <c r="I38" s="24" t="str">
         <f aca="false">IF(G38=E38,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J38" s="25"/>
-      <c r="K38" s="26"/>
-      <c r="L38" s="26"/>
+        <v>Pass</v>
+      </c>
+      <c r="J38" s="24"/>
+      <c r="K38" s="25"/>
+      <c r="L38" s="25"/>
     </row>
     <row r="39" customFormat="false" ht="41.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="21" t="n">
@@ -2542,22 +2650,24 @@
         <v>29</v>
       </c>
       <c r="C39" s="22"/>
-      <c r="D39" s="29" t="s">
+      <c r="D39" s="28" t="s">
         <v>20</v>
       </c>
       <c r="E39" s="15" t="s">
         <v>21</v>
       </c>
       <c r="F39" s="15"/>
-      <c r="G39" s="24"/>
-      <c r="H39" s="24"/>
-      <c r="I39" s="25" t="str">
+      <c r="G39" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="H39" s="15"/>
+      <c r="I39" s="24" t="str">
         <f aca="false">IF(G39=E39,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J39" s="25"/>
-      <c r="K39" s="26"/>
-      <c r="L39" s="26"/>
+        <v>Pass</v>
+      </c>
+      <c r="J39" s="24"/>
+      <c r="K39" s="25"/>
+      <c r="L39" s="25"/>
     </row>
     <row r="40" customFormat="false" ht="41.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="21" t="n">
@@ -2567,22 +2677,24 @@
         <v>39</v>
       </c>
       <c r="C40" s="22"/>
-      <c r="D40" s="30" t="s">
+      <c r="D40" s="29" t="s">
         <v>40</v>
       </c>
       <c r="E40" s="22" t="s">
         <v>41</v>
       </c>
       <c r="F40" s="22"/>
-      <c r="G40" s="24"/>
-      <c r="H40" s="24"/>
-      <c r="I40" s="25" t="str">
+      <c r="G40" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="H40" s="22"/>
+      <c r="I40" s="24" t="str">
         <f aca="false">IF(G40=E40,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J40" s="25"/>
-      <c r="K40" s="31"/>
-      <c r="L40" s="31"/>
+        <v>Pass</v>
+      </c>
+      <c r="J40" s="24"/>
+      <c r="K40" s="30"/>
+      <c r="L40" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="168">
@@ -2773,7 +2885,7 @@
   <dimension ref="A1:L40"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="67" zoomScaleNormal="67" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I27" activeCellId="0" sqref="I27"/>
+      <selection pane="topLeft" activeCell="G35" activeCellId="0" sqref="G35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2881,10 +2993,10 @@
         <v>16</v>
       </c>
       <c r="H5" s="19"/>
-      <c r="I5" s="41" t="s">
+      <c r="I5" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="J5" s="41"/>
+      <c r="J5" s="40"/>
       <c r="K5" s="17" t="s">
         <v>18</v>
       </c>
@@ -2905,34 +3017,38 @@
         <v>21</v>
       </c>
       <c r="F6" s="15"/>
-      <c r="G6" s="24"/>
-      <c r="H6" s="24"/>
-      <c r="I6" s="25" t="str">
+      <c r="G6" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="H6" s="15"/>
+      <c r="I6" s="24" t="str">
         <f aca="false">IF(G6=E6,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J6" s="25"/>
-      <c r="K6" s="26"/>
-      <c r="L6" s="26"/>
+        <v>Pass</v>
+      </c>
+      <c r="J6" s="24"/>
+      <c r="K6" s="25"/>
+      <c r="L6" s="25"/>
     </row>
     <row r="7" customFormat="false" ht="41.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="21"/>
       <c r="B7" s="22"/>
       <c r="C7" s="22"/>
       <c r="D7" s="23"/>
-      <c r="E7" s="27" t="s">
+      <c r="E7" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="F7" s="27"/>
-      <c r="G7" s="24"/>
-      <c r="H7" s="24"/>
-      <c r="I7" s="25" t="str">
+      <c r="F7" s="26"/>
+      <c r="G7" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="H7" s="26"/>
+      <c r="I7" s="24" t="str">
         <f aca="false">IF(G7=E7,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J7" s="25"/>
-      <c r="K7" s="26"/>
-      <c r="L7" s="26"/>
+        <v>Pass</v>
+      </c>
+      <c r="J7" s="24"/>
+      <c r="K7" s="25"/>
+      <c r="L7" s="25"/>
     </row>
     <row r="8" customFormat="false" ht="41.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="21"/>
@@ -2943,34 +3059,38 @@
         <v>23</v>
       </c>
       <c r="F8" s="15"/>
-      <c r="G8" s="24"/>
-      <c r="H8" s="24"/>
-      <c r="I8" s="25" t="str">
+      <c r="G8" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="H8" s="15"/>
+      <c r="I8" s="24" t="str">
         <f aca="false">IF(G8=E8,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J8" s="25"/>
-      <c r="K8" s="26"/>
-      <c r="L8" s="26"/>
+        <v>Pass</v>
+      </c>
+      <c r="J8" s="24"/>
+      <c r="K8" s="25"/>
+      <c r="L8" s="25"/>
     </row>
     <row r="9" customFormat="false" ht="41.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="21"/>
       <c r="B9" s="22"/>
       <c r="C9" s="22"/>
       <c r="D9" s="23"/>
-      <c r="E9" s="27" t="s">
+      <c r="E9" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="F9" s="27"/>
-      <c r="G9" s="24"/>
-      <c r="H9" s="24"/>
-      <c r="I9" s="25" t="str">
+      <c r="F9" s="26"/>
+      <c r="G9" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="H9" s="26"/>
+      <c r="I9" s="24" t="str">
         <f aca="false">IF(G9=E9,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J9" s="25"/>
-      <c r="K9" s="26"/>
-      <c r="L9" s="26"/>
+        <v>Pass</v>
+      </c>
+      <c r="J9" s="24"/>
+      <c r="K9" s="25"/>
+      <c r="L9" s="25"/>
     </row>
     <row r="10" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="21"/>
@@ -2981,15 +3101,17 @@
         <v>25</v>
       </c>
       <c r="F10" s="22"/>
-      <c r="G10" s="24"/>
-      <c r="H10" s="24"/>
-      <c r="I10" s="25" t="str">
+      <c r="G10" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="H10" s="22"/>
+      <c r="I10" s="24" t="str">
         <f aca="false">IF(G10=E10,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J10" s="25"/>
-      <c r="K10" s="26"/>
-      <c r="L10" s="26"/>
+        <v>Pass</v>
+      </c>
+      <c r="J10" s="24"/>
+      <c r="K10" s="25"/>
+      <c r="L10" s="25"/>
     </row>
     <row r="11" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="21" t="n">
@@ -2999,22 +3121,24 @@
         <v>26</v>
       </c>
       <c r="C11" s="22"/>
-      <c r="D11" s="28" t="s">
+      <c r="D11" s="27" t="s">
         <v>27</v>
       </c>
       <c r="E11" s="15" t="s">
         <v>28</v>
       </c>
       <c r="F11" s="15"/>
-      <c r="G11" s="24"/>
-      <c r="H11" s="24"/>
-      <c r="I11" s="25" t="str">
+      <c r="G11" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="H11" s="15"/>
+      <c r="I11" s="24" t="str">
         <f aca="false">IF(G11=E11,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J11" s="25"/>
-      <c r="K11" s="26"/>
-      <c r="L11" s="26"/>
+        <v>Pass</v>
+      </c>
+      <c r="J11" s="24"/>
+      <c r="K11" s="25"/>
+      <c r="L11" s="25"/>
     </row>
     <row r="12" customFormat="false" ht="41.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="21"/>
@@ -3022,22 +3146,24 @@
         <v>29</v>
       </c>
       <c r="C12" s="22"/>
-      <c r="D12" s="29" t="s">
+      <c r="D12" s="28" t="s">
         <v>20</v>
       </c>
       <c r="E12" s="15" t="s">
         <v>21</v>
       </c>
       <c r="F12" s="15"/>
-      <c r="G12" s="24"/>
-      <c r="H12" s="24"/>
-      <c r="I12" s="25" t="str">
+      <c r="G12" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="H12" s="15"/>
+      <c r="I12" s="24" t="str">
         <f aca="false">IF(G12=E12,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J12" s="25"/>
-      <c r="K12" s="26"/>
-      <c r="L12" s="26"/>
+        <v>Pass</v>
+      </c>
+      <c r="J12" s="24"/>
+      <c r="K12" s="25"/>
+      <c r="L12" s="25"/>
     </row>
     <row r="13" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="21" t="n">
@@ -3047,22 +3173,24 @@
         <v>30</v>
       </c>
       <c r="C13" s="22"/>
-      <c r="D13" s="28" t="s">
+      <c r="D13" s="27" t="s">
         <v>31</v>
       </c>
       <c r="E13" s="15" t="s">
         <v>32</v>
       </c>
       <c r="F13" s="15"/>
-      <c r="G13" s="24"/>
-      <c r="H13" s="24"/>
-      <c r="I13" s="25" t="str">
+      <c r="G13" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="H13" s="15"/>
+      <c r="I13" s="24" t="str">
         <f aca="false">IF(G13=E13,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J13" s="25"/>
-      <c r="K13" s="26"/>
-      <c r="L13" s="26"/>
+        <v>Pass</v>
+      </c>
+      <c r="J13" s="24"/>
+      <c r="K13" s="25"/>
+      <c r="L13" s="25"/>
     </row>
     <row r="14" customFormat="false" ht="41.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="21"/>
@@ -3070,22 +3198,24 @@
         <v>29</v>
       </c>
       <c r="C14" s="22"/>
-      <c r="D14" s="29" t="s">
+      <c r="D14" s="28" t="s">
         <v>20</v>
       </c>
       <c r="E14" s="15" t="s">
         <v>21</v>
       </c>
       <c r="F14" s="15"/>
-      <c r="G14" s="24"/>
-      <c r="H14" s="24"/>
-      <c r="I14" s="25" t="str">
+      <c r="G14" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="H14" s="15"/>
+      <c r="I14" s="24" t="str">
         <f aca="false">IF(G14=E14,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J14" s="25"/>
-      <c r="K14" s="26"/>
-      <c r="L14" s="26"/>
+        <v>Pass</v>
+      </c>
+      <c r="J14" s="24"/>
+      <c r="K14" s="25"/>
+      <c r="L14" s="25"/>
     </row>
     <row r="15" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="21" t="n">
@@ -3095,22 +3225,24 @@
         <v>33</v>
       </c>
       <c r="C15" s="22"/>
-      <c r="D15" s="28" t="s">
+      <c r="D15" s="27" t="s">
         <v>34</v>
       </c>
       <c r="E15" s="15" t="s">
         <v>35</v>
       </c>
       <c r="F15" s="15"/>
-      <c r="G15" s="24"/>
-      <c r="H15" s="24"/>
-      <c r="I15" s="25" t="str">
+      <c r="G15" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="H15" s="15"/>
+      <c r="I15" s="24" t="str">
         <f aca="false">IF(G15=E15,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J15" s="25"/>
-      <c r="K15" s="26"/>
-      <c r="L15" s="26"/>
+        <v>Pass</v>
+      </c>
+      <c r="J15" s="24"/>
+      <c r="K15" s="25"/>
+      <c r="L15" s="25"/>
     </row>
     <row r="16" customFormat="false" ht="41.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="21" t="n">
@@ -3120,22 +3252,24 @@
         <v>29</v>
       </c>
       <c r="C16" s="22"/>
-      <c r="D16" s="29" t="s">
+      <c r="D16" s="28" t="s">
         <v>20</v>
       </c>
       <c r="E16" s="15" t="s">
         <v>21</v>
       </c>
       <c r="F16" s="15"/>
-      <c r="G16" s="24"/>
-      <c r="H16" s="24"/>
-      <c r="I16" s="25" t="str">
+      <c r="G16" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="H16" s="15"/>
+      <c r="I16" s="24" t="str">
         <f aca="false">IF(G16=E16,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J16" s="25"/>
-      <c r="K16" s="26"/>
-      <c r="L16" s="26"/>
+        <v>Pass</v>
+      </c>
+      <c r="J16" s="24"/>
+      <c r="K16" s="25"/>
+      <c r="L16" s="25"/>
     </row>
     <row r="17" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="21" t="n">
@@ -3145,22 +3279,24 @@
         <v>36</v>
       </c>
       <c r="C17" s="22"/>
-      <c r="D17" s="28" t="s">
+      <c r="D17" s="27" t="s">
         <v>37</v>
       </c>
       <c r="E17" s="15" t="s">
         <v>38</v>
       </c>
       <c r="F17" s="15"/>
-      <c r="G17" s="24"/>
-      <c r="H17" s="24"/>
-      <c r="I17" s="25" t="str">
+      <c r="G17" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="H17" s="15"/>
+      <c r="I17" s="24" t="str">
         <f aca="false">IF(G17=E17,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J17" s="25"/>
-      <c r="K17" s="26"/>
-      <c r="L17" s="26"/>
+        <v>Pass</v>
+      </c>
+      <c r="J17" s="24"/>
+      <c r="K17" s="25"/>
+      <c r="L17" s="25"/>
     </row>
     <row r="18" customFormat="false" ht="41.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="21" t="n">
@@ -3170,22 +3306,24 @@
         <v>29</v>
       </c>
       <c r="C18" s="22"/>
-      <c r="D18" s="29" t="s">
+      <c r="D18" s="28" t="s">
         <v>20</v>
       </c>
       <c r="E18" s="15" t="s">
         <v>21</v>
       </c>
       <c r="F18" s="15"/>
-      <c r="G18" s="24"/>
-      <c r="H18" s="24"/>
-      <c r="I18" s="25" t="str">
+      <c r="G18" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="H18" s="15"/>
+      <c r="I18" s="24" t="str">
         <f aca="false">IF(G18=E18,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J18" s="25"/>
-      <c r="K18" s="26"/>
-      <c r="L18" s="26"/>
+        <v>Pass</v>
+      </c>
+      <c r="J18" s="24"/>
+      <c r="K18" s="25"/>
+      <c r="L18" s="25"/>
     </row>
     <row r="19" customFormat="false" ht="41.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="21" t="n">
@@ -3195,22 +3333,24 @@
         <v>39</v>
       </c>
       <c r="C19" s="22"/>
-      <c r="D19" s="30" t="s">
+      <c r="D19" s="29" t="s">
         <v>40</v>
       </c>
       <c r="E19" s="22" t="s">
         <v>41</v>
       </c>
       <c r="F19" s="22"/>
-      <c r="G19" s="24"/>
-      <c r="H19" s="24"/>
-      <c r="I19" s="25" t="str">
+      <c r="G19" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="H19" s="22"/>
+      <c r="I19" s="24" t="str">
         <f aca="false">IF(G19=E19,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J19" s="25"/>
-      <c r="K19" s="31"/>
-      <c r="L19" s="31"/>
+        <v>Pass</v>
+      </c>
+      <c r="J19" s="24"/>
+      <c r="K19" s="30"/>
+      <c r="L19" s="30"/>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="8"/>
@@ -3227,64 +3367,64 @@
       <c r="L20" s="8"/>
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="32"/>
+      <c r="A21" s="31"/>
     </row>
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="33" t="s">
+      <c r="A22" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="B22" s="33"/>
-      <c r="C22" s="34"/>
-      <c r="D22" s="34"/>
-      <c r="E22" s="34"/>
-      <c r="F22" s="35" t="s">
+      <c r="B22" s="32"/>
+      <c r="C22" s="33"/>
+      <c r="D22" s="33"/>
+      <c r="E22" s="33"/>
+      <c r="F22" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="G22" s="36" t="s">
+      <c r="G22" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="H22" s="37"/>
+      <c r="H22" s="36"/>
       <c r="I22" s="6"/>
       <c r="J22" s="7"/>
       <c r="L22" s="8"/>
     </row>
     <row r="23" customFormat="false" ht="31.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="33" t="s">
+      <c r="A23" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="B23" s="33"/>
-      <c r="C23" s="34" t="s">
+      <c r="B23" s="32"/>
+      <c r="C23" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="D23" s="34"/>
-      <c r="E23" s="34"/>
-      <c r="F23" s="35" t="s">
+      <c r="D23" s="33"/>
+      <c r="E23" s="33"/>
+      <c r="F23" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="G23" s="38" t="s">
+      <c r="G23" s="37" t="s">
         <v>43</v>
       </c>
-      <c r="H23" s="38"/>
+      <c r="H23" s="37"/>
       <c r="I23" s="10"/>
       <c r="J23" s="6"/>
       <c r="K23" s="6"/>
       <c r="L23" s="8"/>
     </row>
     <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="33" t="s">
+      <c r="A24" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="B24" s="33"/>
-      <c r="C24" s="34" t="s">
+      <c r="B24" s="32"/>
+      <c r="C24" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="D24" s="34"/>
-      <c r="E24" s="34"/>
-      <c r="F24" s="35" t="s">
+      <c r="D24" s="33"/>
+      <c r="E24" s="33"/>
+      <c r="F24" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="G24" s="39"/>
-      <c r="H24" s="40"/>
+      <c r="G24" s="38"/>
+      <c r="H24" s="39"/>
       <c r="I24" s="13"/>
       <c r="J24" s="13"/>
       <c r="K24" s="13"/>
@@ -3325,10 +3465,10 @@
         <v>16</v>
       </c>
       <c r="H26" s="19"/>
-      <c r="I26" s="41" t="s">
+      <c r="I26" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="J26" s="41"/>
+      <c r="J26" s="40"/>
       <c r="K26" s="17" t="s">
         <v>18</v>
       </c>
@@ -3349,34 +3489,38 @@
         <v>21</v>
       </c>
       <c r="F27" s="15"/>
-      <c r="G27" s="24"/>
-      <c r="H27" s="24"/>
-      <c r="I27" s="25" t="str">
+      <c r="G27" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="H27" s="15"/>
+      <c r="I27" s="24" t="str">
         <f aca="false">IF(G27=E27,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J27" s="25"/>
-      <c r="K27" s="26"/>
-      <c r="L27" s="26"/>
+        <v>Pass</v>
+      </c>
+      <c r="J27" s="24"/>
+      <c r="K27" s="25"/>
+      <c r="L27" s="25"/>
     </row>
     <row r="28" customFormat="false" ht="41.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="21"/>
       <c r="B28" s="22"/>
       <c r="C28" s="22"/>
       <c r="D28" s="23"/>
-      <c r="E28" s="27" t="s">
+      <c r="E28" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="F28" s="27"/>
-      <c r="G28" s="24"/>
-      <c r="H28" s="24"/>
-      <c r="I28" s="25" t="str">
+      <c r="F28" s="26"/>
+      <c r="G28" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="H28" s="26"/>
+      <c r="I28" s="24" t="str">
         <f aca="false">IF(G28=E28,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J28" s="25"/>
-      <c r="K28" s="26"/>
-      <c r="L28" s="26"/>
+        <v>Pass</v>
+      </c>
+      <c r="J28" s="24"/>
+      <c r="K28" s="25"/>
+      <c r="L28" s="25"/>
     </row>
     <row r="29" customFormat="false" ht="41.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="21"/>
@@ -3387,34 +3531,38 @@
         <v>23</v>
       </c>
       <c r="F29" s="15"/>
-      <c r="G29" s="24"/>
-      <c r="H29" s="24"/>
-      <c r="I29" s="25" t="str">
+      <c r="G29" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="H29" s="15"/>
+      <c r="I29" s="24" t="str">
         <f aca="false">IF(G29=E29,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J29" s="25"/>
-      <c r="K29" s="26"/>
-      <c r="L29" s="26"/>
+        <v>Pass</v>
+      </c>
+      <c r="J29" s="24"/>
+      <c r="K29" s="25"/>
+      <c r="L29" s="25"/>
     </row>
     <row r="30" customFormat="false" ht="41.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="21"/>
       <c r="B30" s="22"/>
       <c r="C30" s="22"/>
       <c r="D30" s="23"/>
-      <c r="E30" s="27" t="s">
+      <c r="E30" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="F30" s="27"/>
-      <c r="G30" s="24"/>
-      <c r="H30" s="24"/>
-      <c r="I30" s="25" t="str">
+      <c r="F30" s="26"/>
+      <c r="G30" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="H30" s="26"/>
+      <c r="I30" s="24" t="str">
         <f aca="false">IF(G30=E30,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J30" s="25"/>
-      <c r="K30" s="26"/>
-      <c r="L30" s="26"/>
+        <v>Pass</v>
+      </c>
+      <c r="J30" s="24"/>
+      <c r="K30" s="25"/>
+      <c r="L30" s="25"/>
     </row>
     <row r="31" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="21"/>
@@ -3425,15 +3573,17 @@
         <v>25</v>
       </c>
       <c r="F31" s="22"/>
-      <c r="G31" s="24"/>
-      <c r="H31" s="24"/>
-      <c r="I31" s="25" t="str">
+      <c r="G31" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="H31" s="22"/>
+      <c r="I31" s="24" t="str">
         <f aca="false">IF(G31=E31,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J31" s="25"/>
-      <c r="K31" s="26"/>
-      <c r="L31" s="26"/>
+        <v>Pass</v>
+      </c>
+      <c r="J31" s="24"/>
+      <c r="K31" s="25"/>
+      <c r="L31" s="25"/>
     </row>
     <row r="32" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="21" t="n">
@@ -3443,22 +3593,24 @@
         <v>26</v>
       </c>
       <c r="C32" s="22"/>
-      <c r="D32" s="28" t="s">
+      <c r="D32" s="27" t="s">
         <v>27</v>
       </c>
       <c r="E32" s="15" t="s">
         <v>28</v>
       </c>
       <c r="F32" s="15"/>
-      <c r="G32" s="24"/>
-      <c r="H32" s="24"/>
-      <c r="I32" s="25" t="str">
+      <c r="G32" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="H32" s="15"/>
+      <c r="I32" s="24" t="str">
         <f aca="false">IF(G32=E32,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J32" s="25"/>
-      <c r="K32" s="26"/>
-      <c r="L32" s="26"/>
+        <v>Pass</v>
+      </c>
+      <c r="J32" s="24"/>
+      <c r="K32" s="25"/>
+      <c r="L32" s="25"/>
     </row>
     <row r="33" customFormat="false" ht="41.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="21"/>
@@ -3466,22 +3618,24 @@
         <v>29</v>
       </c>
       <c r="C33" s="22"/>
-      <c r="D33" s="29" t="s">
+      <c r="D33" s="28" t="s">
         <v>20</v>
       </c>
       <c r="E33" s="15" t="s">
         <v>21</v>
       </c>
       <c r="F33" s="15"/>
-      <c r="G33" s="24"/>
-      <c r="H33" s="24"/>
-      <c r="I33" s="25" t="str">
+      <c r="G33" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="H33" s="15"/>
+      <c r="I33" s="24" t="str">
         <f aca="false">IF(G33=E33,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J33" s="25"/>
-      <c r="K33" s="26"/>
-      <c r="L33" s="26"/>
+        <v>Pass</v>
+      </c>
+      <c r="J33" s="24"/>
+      <c r="K33" s="25"/>
+      <c r="L33" s="25"/>
     </row>
     <row r="34" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="21" t="n">
@@ -3491,22 +3645,24 @@
         <v>30</v>
       </c>
       <c r="C34" s="22"/>
-      <c r="D34" s="28" t="s">
+      <c r="D34" s="27" t="s">
         <v>31</v>
       </c>
       <c r="E34" s="15" t="s">
         <v>32</v>
       </c>
       <c r="F34" s="15"/>
-      <c r="G34" s="24"/>
-      <c r="H34" s="24"/>
-      <c r="I34" s="25" t="str">
+      <c r="G34" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="H34" s="15"/>
+      <c r="I34" s="24" t="str">
         <f aca="false">IF(G34=E34,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J34" s="25"/>
-      <c r="K34" s="26"/>
-      <c r="L34" s="26"/>
+        <v>Pass</v>
+      </c>
+      <c r="J34" s="24"/>
+      <c r="K34" s="25"/>
+      <c r="L34" s="25"/>
     </row>
     <row r="35" customFormat="false" ht="41.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="21"/>
@@ -3514,22 +3670,24 @@
         <v>29</v>
       </c>
       <c r="C35" s="22"/>
-      <c r="D35" s="29" t="s">
+      <c r="D35" s="28" t="s">
         <v>20</v>
       </c>
       <c r="E35" s="15" t="s">
         <v>21</v>
       </c>
       <c r="F35" s="15"/>
-      <c r="G35" s="24"/>
-      <c r="H35" s="24"/>
-      <c r="I35" s="25" t="str">
+      <c r="G35" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="H35" s="15"/>
+      <c r="I35" s="24" t="str">
         <f aca="false">IF(G35=E35,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J35" s="25"/>
-      <c r="K35" s="26"/>
-      <c r="L35" s="26"/>
+        <v>Pass</v>
+      </c>
+      <c r="J35" s="24"/>
+      <c r="K35" s="25"/>
+      <c r="L35" s="25"/>
     </row>
     <row r="36" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="21" t="n">
@@ -3539,22 +3697,24 @@
         <v>33</v>
       </c>
       <c r="C36" s="22"/>
-      <c r="D36" s="28" t="s">
+      <c r="D36" s="27" t="s">
         <v>34</v>
       </c>
       <c r="E36" s="15" t="s">
         <v>35</v>
       </c>
       <c r="F36" s="15"/>
-      <c r="G36" s="24"/>
-      <c r="H36" s="24"/>
-      <c r="I36" s="25" t="str">
+      <c r="G36" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="H36" s="15"/>
+      <c r="I36" s="24" t="str">
         <f aca="false">IF(G36=E36,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J36" s="25"/>
-      <c r="K36" s="26"/>
-      <c r="L36" s="26"/>
+        <v>Pass</v>
+      </c>
+      <c r="J36" s="24"/>
+      <c r="K36" s="25"/>
+      <c r="L36" s="25"/>
     </row>
     <row r="37" customFormat="false" ht="41.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="21" t="n">
@@ -3564,22 +3724,24 @@
         <v>29</v>
       </c>
       <c r="C37" s="22"/>
-      <c r="D37" s="29" t="s">
+      <c r="D37" s="28" t="s">
         <v>20</v>
       </c>
       <c r="E37" s="15" t="s">
         <v>21</v>
       </c>
       <c r="F37" s="15"/>
-      <c r="G37" s="24"/>
-      <c r="H37" s="24"/>
-      <c r="I37" s="25" t="str">
+      <c r="G37" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="H37" s="15"/>
+      <c r="I37" s="24" t="str">
         <f aca="false">IF(G37=E37,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J37" s="25"/>
-      <c r="K37" s="26"/>
-      <c r="L37" s="26"/>
+        <v>Pass</v>
+      </c>
+      <c r="J37" s="24"/>
+      <c r="K37" s="25"/>
+      <c r="L37" s="25"/>
     </row>
     <row r="38" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="21" t="n">
@@ -3589,22 +3751,24 @@
         <v>36</v>
       </c>
       <c r="C38" s="22"/>
-      <c r="D38" s="28" t="s">
+      <c r="D38" s="27" t="s">
         <v>37</v>
       </c>
       <c r="E38" s="15" t="s">
         <v>38</v>
       </c>
       <c r="F38" s="15"/>
-      <c r="G38" s="24"/>
-      <c r="H38" s="24"/>
-      <c r="I38" s="25" t="str">
+      <c r="G38" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="H38" s="15"/>
+      <c r="I38" s="24" t="str">
         <f aca="false">IF(G38=E38,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J38" s="25"/>
-      <c r="K38" s="26"/>
-      <c r="L38" s="26"/>
+        <v>Pass</v>
+      </c>
+      <c r="J38" s="24"/>
+      <c r="K38" s="25"/>
+      <c r="L38" s="25"/>
     </row>
     <row r="39" customFormat="false" ht="41.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="21" t="n">
@@ -3614,22 +3778,24 @@
         <v>29</v>
       </c>
       <c r="C39" s="22"/>
-      <c r="D39" s="29" t="s">
+      <c r="D39" s="28" t="s">
         <v>20</v>
       </c>
       <c r="E39" s="15" t="s">
         <v>21</v>
       </c>
       <c r="F39" s="15"/>
-      <c r="G39" s="24"/>
-      <c r="H39" s="24"/>
-      <c r="I39" s="25" t="str">
+      <c r="G39" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="H39" s="15"/>
+      <c r="I39" s="24" t="str">
         <f aca="false">IF(G39=E39,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J39" s="25"/>
-      <c r="K39" s="26"/>
-      <c r="L39" s="26"/>
+        <v>Pass</v>
+      </c>
+      <c r="J39" s="24"/>
+      <c r="K39" s="25"/>
+      <c r="L39" s="25"/>
     </row>
     <row r="40" customFormat="false" ht="41.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="21" t="n">
@@ -3639,22 +3805,24 @@
         <v>39</v>
       </c>
       <c r="C40" s="22"/>
-      <c r="D40" s="30" t="s">
+      <c r="D40" s="29" t="s">
         <v>40</v>
       </c>
       <c r="E40" s="22" t="s">
         <v>41</v>
       </c>
       <c r="F40" s="22"/>
-      <c r="G40" s="24"/>
-      <c r="H40" s="24"/>
-      <c r="I40" s="25" t="str">
+      <c r="G40" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="H40" s="22"/>
+      <c r="I40" s="24" t="str">
         <f aca="false">IF(G40=E40,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J40" s="25"/>
-      <c r="K40" s="31"/>
-      <c r="L40" s="31"/>
+        <v>Pass</v>
+      </c>
+      <c r="J40" s="24"/>
+      <c r="K40" s="30"/>
+      <c r="L40" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="168">
@@ -3845,7 +4013,7 @@
   <dimension ref="A1:L40"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="67" zoomScaleNormal="67" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I27" activeCellId="0" sqref="I27"/>
+      <selection pane="topLeft" activeCell="G32" activeCellId="0" sqref="G32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3890,7 +4058,7 @@
         <v>6</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H2" s="9"/>
       <c r="I2" s="10"/>
@@ -3953,10 +4121,10 @@
         <v>16</v>
       </c>
       <c r="H5" s="19"/>
-      <c r="I5" s="41" t="s">
+      <c r="I5" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="J5" s="41"/>
+      <c r="J5" s="40"/>
       <c r="K5" s="17" t="s">
         <v>18</v>
       </c>
@@ -3977,34 +4145,38 @@
         <v>21</v>
       </c>
       <c r="F6" s="15"/>
-      <c r="G6" s="24"/>
-      <c r="H6" s="24"/>
-      <c r="I6" s="25" t="str">
+      <c r="G6" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="H6" s="15"/>
+      <c r="I6" s="24" t="str">
         <f aca="false">IF(G6=E6,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J6" s="25"/>
-      <c r="K6" s="26"/>
-      <c r="L6" s="26"/>
+        <v>Pass</v>
+      </c>
+      <c r="J6" s="24"/>
+      <c r="K6" s="25"/>
+      <c r="L6" s="25"/>
     </row>
     <row r="7" customFormat="false" ht="41.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="21"/>
       <c r="B7" s="22"/>
       <c r="C7" s="22"/>
       <c r="D7" s="23"/>
-      <c r="E7" s="27" t="s">
+      <c r="E7" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="F7" s="27"/>
-      <c r="G7" s="24"/>
-      <c r="H7" s="24"/>
-      <c r="I7" s="25" t="str">
+      <c r="F7" s="26"/>
+      <c r="G7" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="H7" s="26"/>
+      <c r="I7" s="24" t="str">
         <f aca="false">IF(G7=E7,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J7" s="25"/>
-      <c r="K7" s="26"/>
-      <c r="L7" s="26"/>
+        <v>Pass</v>
+      </c>
+      <c r="J7" s="24"/>
+      <c r="K7" s="25"/>
+      <c r="L7" s="25"/>
     </row>
     <row r="8" customFormat="false" ht="41.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="21"/>
@@ -4015,34 +4187,38 @@
         <v>23</v>
       </c>
       <c r="F8" s="15"/>
-      <c r="G8" s="24"/>
-      <c r="H8" s="24"/>
-      <c r="I8" s="25" t="str">
+      <c r="G8" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="H8" s="15"/>
+      <c r="I8" s="24" t="str">
         <f aca="false">IF(G8=E8,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J8" s="25"/>
-      <c r="K8" s="26"/>
-      <c r="L8" s="26"/>
+        <v>Pass</v>
+      </c>
+      <c r="J8" s="24"/>
+      <c r="K8" s="25"/>
+      <c r="L8" s="25"/>
     </row>
     <row r="9" customFormat="false" ht="41.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="21"/>
       <c r="B9" s="22"/>
       <c r="C9" s="22"/>
       <c r="D9" s="23"/>
-      <c r="E9" s="27" t="s">
+      <c r="E9" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="F9" s="27"/>
-      <c r="G9" s="24"/>
-      <c r="H9" s="24"/>
-      <c r="I9" s="25" t="str">
+      <c r="F9" s="26"/>
+      <c r="G9" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="H9" s="26"/>
+      <c r="I9" s="24" t="str">
         <f aca="false">IF(G9=E9,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J9" s="25"/>
-      <c r="K9" s="26"/>
-      <c r="L9" s="26"/>
+        <v>Pass</v>
+      </c>
+      <c r="J9" s="24"/>
+      <c r="K9" s="25"/>
+      <c r="L9" s="25"/>
     </row>
     <row r="10" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="21"/>
@@ -4053,15 +4229,17 @@
         <v>25</v>
       </c>
       <c r="F10" s="22"/>
-      <c r="G10" s="24"/>
-      <c r="H10" s="24"/>
-      <c r="I10" s="25" t="str">
+      <c r="G10" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="H10" s="22"/>
+      <c r="I10" s="24" t="str">
         <f aca="false">IF(G10=E10,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J10" s="25"/>
-      <c r="K10" s="26"/>
-      <c r="L10" s="26"/>
+        <v>Pass</v>
+      </c>
+      <c r="J10" s="24"/>
+      <c r="K10" s="25"/>
+      <c r="L10" s="25"/>
     </row>
     <row r="11" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="21" t="n">
@@ -4071,22 +4249,24 @@
         <v>26</v>
       </c>
       <c r="C11" s="22"/>
-      <c r="D11" s="28" t="s">
+      <c r="D11" s="27" t="s">
         <v>27</v>
       </c>
       <c r="E11" s="15" t="s">
         <v>28</v>
       </c>
       <c r="F11" s="15"/>
-      <c r="G11" s="24"/>
-      <c r="H11" s="24"/>
-      <c r="I11" s="25" t="str">
+      <c r="G11" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="H11" s="15"/>
+      <c r="I11" s="24" t="str">
         <f aca="false">IF(G11=E11,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J11" s="25"/>
-      <c r="K11" s="26"/>
-      <c r="L11" s="26"/>
+        <v>Pass</v>
+      </c>
+      <c r="J11" s="24"/>
+      <c r="K11" s="25"/>
+      <c r="L11" s="25"/>
     </row>
     <row r="12" customFormat="false" ht="41.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="21"/>
@@ -4094,22 +4274,24 @@
         <v>29</v>
       </c>
       <c r="C12" s="22"/>
-      <c r="D12" s="29" t="s">
+      <c r="D12" s="28" t="s">
         <v>20</v>
       </c>
       <c r="E12" s="15" t="s">
         <v>21</v>
       </c>
       <c r="F12" s="15"/>
-      <c r="G12" s="24"/>
-      <c r="H12" s="24"/>
-      <c r="I12" s="25" t="str">
+      <c r="G12" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="H12" s="15"/>
+      <c r="I12" s="24" t="str">
         <f aca="false">IF(G12=E12,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J12" s="25"/>
-      <c r="K12" s="26"/>
-      <c r="L12" s="26"/>
+        <v>Pass</v>
+      </c>
+      <c r="J12" s="24"/>
+      <c r="K12" s="25"/>
+      <c r="L12" s="25"/>
     </row>
     <row r="13" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="21" t="n">
@@ -4119,22 +4301,24 @@
         <v>30</v>
       </c>
       <c r="C13" s="22"/>
-      <c r="D13" s="28" t="s">
+      <c r="D13" s="27" t="s">
         <v>31</v>
       </c>
       <c r="E13" s="15" t="s">
         <v>32</v>
       </c>
       <c r="F13" s="15"/>
-      <c r="G13" s="24"/>
-      <c r="H13" s="24"/>
-      <c r="I13" s="25" t="str">
+      <c r="G13" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="H13" s="15"/>
+      <c r="I13" s="24" t="str">
         <f aca="false">IF(G13=E13,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J13" s="25"/>
-      <c r="K13" s="26"/>
-      <c r="L13" s="26"/>
+        <v>Pass</v>
+      </c>
+      <c r="J13" s="24"/>
+      <c r="K13" s="25"/>
+      <c r="L13" s="25"/>
     </row>
     <row r="14" customFormat="false" ht="41.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="21"/>
@@ -4142,22 +4326,24 @@
         <v>29</v>
       </c>
       <c r="C14" s="22"/>
-      <c r="D14" s="29" t="s">
+      <c r="D14" s="28" t="s">
         <v>20</v>
       </c>
       <c r="E14" s="15" t="s">
         <v>21</v>
       </c>
       <c r="F14" s="15"/>
-      <c r="G14" s="24"/>
-      <c r="H14" s="24"/>
-      <c r="I14" s="25" t="str">
+      <c r="G14" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="H14" s="15"/>
+      <c r="I14" s="24" t="str">
         <f aca="false">IF(G14=E14,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J14" s="25"/>
-      <c r="K14" s="26"/>
-      <c r="L14" s="26"/>
+        <v>Pass</v>
+      </c>
+      <c r="J14" s="24"/>
+      <c r="K14" s="25"/>
+      <c r="L14" s="25"/>
     </row>
     <row r="15" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="21" t="n">
@@ -4167,22 +4353,24 @@
         <v>33</v>
       </c>
       <c r="C15" s="22"/>
-      <c r="D15" s="28" t="s">
+      <c r="D15" s="27" t="s">
         <v>34</v>
       </c>
       <c r="E15" s="15" t="s">
         <v>35</v>
       </c>
       <c r="F15" s="15"/>
-      <c r="G15" s="24"/>
-      <c r="H15" s="24"/>
-      <c r="I15" s="25" t="str">
+      <c r="G15" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="H15" s="15"/>
+      <c r="I15" s="24" t="str">
         <f aca="false">IF(G15=E15,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J15" s="25"/>
-      <c r="K15" s="26"/>
-      <c r="L15" s="26"/>
+        <v>Pass</v>
+      </c>
+      <c r="J15" s="24"/>
+      <c r="K15" s="25"/>
+      <c r="L15" s="25"/>
     </row>
     <row r="16" customFormat="false" ht="41.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="21" t="n">
@@ -4192,22 +4380,24 @@
         <v>29</v>
       </c>
       <c r="C16" s="22"/>
-      <c r="D16" s="29" t="s">
+      <c r="D16" s="28" t="s">
         <v>20</v>
       </c>
       <c r="E16" s="15" t="s">
         <v>21</v>
       </c>
       <c r="F16" s="15"/>
-      <c r="G16" s="24"/>
-      <c r="H16" s="24"/>
-      <c r="I16" s="25" t="str">
+      <c r="G16" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="H16" s="15"/>
+      <c r="I16" s="24" t="str">
         <f aca="false">IF(G16=E16,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J16" s="25"/>
-      <c r="K16" s="26"/>
-      <c r="L16" s="26"/>
+        <v>Pass</v>
+      </c>
+      <c r="J16" s="24"/>
+      <c r="K16" s="25"/>
+      <c r="L16" s="25"/>
     </row>
     <row r="17" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="21" t="n">
@@ -4217,22 +4407,24 @@
         <v>36</v>
       </c>
       <c r="C17" s="22"/>
-      <c r="D17" s="28" t="s">
+      <c r="D17" s="27" t="s">
         <v>37</v>
       </c>
       <c r="E17" s="15" t="s">
         <v>38</v>
       </c>
       <c r="F17" s="15"/>
-      <c r="G17" s="24"/>
-      <c r="H17" s="24"/>
-      <c r="I17" s="25" t="str">
+      <c r="G17" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="H17" s="15"/>
+      <c r="I17" s="24" t="str">
         <f aca="false">IF(G17=E17,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J17" s="25"/>
-      <c r="K17" s="26"/>
-      <c r="L17" s="26"/>
+        <v>Pass</v>
+      </c>
+      <c r="J17" s="24"/>
+      <c r="K17" s="25"/>
+      <c r="L17" s="25"/>
     </row>
     <row r="18" customFormat="false" ht="41.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="21" t="n">
@@ -4242,22 +4434,24 @@
         <v>29</v>
       </c>
       <c r="C18" s="22"/>
-      <c r="D18" s="29" t="s">
+      <c r="D18" s="28" t="s">
         <v>20</v>
       </c>
       <c r="E18" s="15" t="s">
         <v>21</v>
       </c>
       <c r="F18" s="15"/>
-      <c r="G18" s="24"/>
-      <c r="H18" s="24"/>
-      <c r="I18" s="25" t="str">
+      <c r="G18" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="H18" s="15"/>
+      <c r="I18" s="24" t="str">
         <f aca="false">IF(G18=E18,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J18" s="25"/>
-      <c r="K18" s="26"/>
-      <c r="L18" s="26"/>
+        <v>Pass</v>
+      </c>
+      <c r="J18" s="24"/>
+      <c r="K18" s="25"/>
+      <c r="L18" s="25"/>
     </row>
     <row r="19" customFormat="false" ht="41.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="21" t="n">
@@ -4267,22 +4461,24 @@
         <v>39</v>
       </c>
       <c r="C19" s="22"/>
-      <c r="D19" s="30" t="s">
+      <c r="D19" s="29" t="s">
         <v>40</v>
       </c>
       <c r="E19" s="22" t="s">
         <v>41</v>
       </c>
       <c r="F19" s="22"/>
-      <c r="G19" s="24"/>
-      <c r="H19" s="24"/>
-      <c r="I19" s="25" t="str">
+      <c r="G19" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="H19" s="22"/>
+      <c r="I19" s="24" t="str">
         <f aca="false">IF(G19=E19,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J19" s="25"/>
-      <c r="K19" s="31"/>
-      <c r="L19" s="31"/>
+        <v>Pass</v>
+      </c>
+      <c r="J19" s="24"/>
+      <c r="K19" s="30"/>
+      <c r="L19" s="30"/>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="8"/>
@@ -4299,64 +4495,64 @@
       <c r="L20" s="8"/>
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="32"/>
+      <c r="A21" s="31"/>
     </row>
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="33" t="s">
+      <c r="A22" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="B22" s="33"/>
-      <c r="C22" s="34"/>
-      <c r="D22" s="34"/>
-      <c r="E22" s="34"/>
-      <c r="F22" s="35" t="s">
+      <c r="B22" s="32"/>
+      <c r="C22" s="33"/>
+      <c r="D22" s="33"/>
+      <c r="E22" s="33"/>
+      <c r="F22" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="G22" s="36" t="s">
+      <c r="G22" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="H22" s="37"/>
+      <c r="H22" s="36"/>
       <c r="I22" s="6"/>
       <c r="J22" s="7"/>
       <c r="L22" s="8"/>
     </row>
     <row r="23" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="33" t="s">
+      <c r="A23" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="B23" s="33"/>
-      <c r="C23" s="34" t="s">
+      <c r="B23" s="32"/>
+      <c r="C23" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="D23" s="34"/>
-      <c r="E23" s="34"/>
-      <c r="F23" s="35" t="s">
+      <c r="D23" s="33"/>
+      <c r="E23" s="33"/>
+      <c r="F23" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="G23" s="38" t="s">
-        <v>45</v>
-      </c>
-      <c r="H23" s="38"/>
+      <c r="G23" s="37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" s="37"/>
       <c r="I23" s="10"/>
       <c r="J23" s="6"/>
       <c r="K23" s="6"/>
       <c r="L23" s="8"/>
     </row>
     <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="33" t="s">
+      <c r="A24" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="B24" s="33"/>
-      <c r="C24" s="34" t="s">
+      <c r="B24" s="32"/>
+      <c r="C24" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="D24" s="34"/>
-      <c r="E24" s="34"/>
-      <c r="F24" s="35" t="s">
+      <c r="D24" s="33"/>
+      <c r="E24" s="33"/>
+      <c r="F24" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="G24" s="39"/>
-      <c r="H24" s="40"/>
+      <c r="G24" s="38"/>
+      <c r="H24" s="39"/>
       <c r="I24" s="13"/>
       <c r="J24" s="13"/>
       <c r="K24" s="13"/>
@@ -4397,10 +4593,10 @@
         <v>16</v>
       </c>
       <c r="H26" s="19"/>
-      <c r="I26" s="41" t="s">
+      <c r="I26" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="J26" s="41"/>
+      <c r="J26" s="40"/>
       <c r="K26" s="17" t="s">
         <v>18</v>
       </c>
@@ -4421,34 +4617,38 @@
         <v>21</v>
       </c>
       <c r="F27" s="15"/>
-      <c r="G27" s="24"/>
-      <c r="H27" s="24"/>
-      <c r="I27" s="25" t="str">
+      <c r="G27" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="H27" s="15"/>
+      <c r="I27" s="24" t="str">
         <f aca="false">IF(G27=E27,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J27" s="25"/>
-      <c r="K27" s="26"/>
-      <c r="L27" s="26"/>
+        <v>Pass</v>
+      </c>
+      <c r="J27" s="24"/>
+      <c r="K27" s="25"/>
+      <c r="L27" s="25"/>
     </row>
     <row r="28" customFormat="false" ht="41.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="21"/>
       <c r="B28" s="22"/>
       <c r="C28" s="22"/>
       <c r="D28" s="23"/>
-      <c r="E28" s="27" t="s">
+      <c r="E28" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="F28" s="27"/>
-      <c r="G28" s="24"/>
-      <c r="H28" s="24"/>
-      <c r="I28" s="25" t="str">
+      <c r="F28" s="26"/>
+      <c r="G28" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="H28" s="26"/>
+      <c r="I28" s="24" t="str">
         <f aca="false">IF(G28=E28,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J28" s="25"/>
-      <c r="K28" s="26"/>
-      <c r="L28" s="26"/>
+        <v>Pass</v>
+      </c>
+      <c r="J28" s="24"/>
+      <c r="K28" s="25"/>
+      <c r="L28" s="25"/>
     </row>
     <row r="29" customFormat="false" ht="41.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="21"/>
@@ -4459,34 +4659,38 @@
         <v>23</v>
       </c>
       <c r="F29" s="15"/>
-      <c r="G29" s="24"/>
-      <c r="H29" s="24"/>
-      <c r="I29" s="25" t="str">
+      <c r="G29" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="H29" s="15"/>
+      <c r="I29" s="24" t="str">
         <f aca="false">IF(G29=E29,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J29" s="25"/>
-      <c r="K29" s="26"/>
-      <c r="L29" s="26"/>
+        <v>Pass</v>
+      </c>
+      <c r="J29" s="24"/>
+      <c r="K29" s="25"/>
+      <c r="L29" s="25"/>
     </row>
     <row r="30" customFormat="false" ht="41.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="21"/>
       <c r="B30" s="22"/>
       <c r="C30" s="22"/>
       <c r="D30" s="23"/>
-      <c r="E30" s="27" t="s">
+      <c r="E30" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="F30" s="27"/>
-      <c r="G30" s="24"/>
-      <c r="H30" s="24"/>
-      <c r="I30" s="25" t="str">
+      <c r="F30" s="26"/>
+      <c r="G30" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="H30" s="26"/>
+      <c r="I30" s="24" t="str">
         <f aca="false">IF(G30=E30,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J30" s="25"/>
-      <c r="K30" s="26"/>
-      <c r="L30" s="26"/>
+        <v>Pass</v>
+      </c>
+      <c r="J30" s="24"/>
+      <c r="K30" s="25"/>
+      <c r="L30" s="25"/>
     </row>
     <row r="31" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="21"/>
@@ -4497,15 +4701,17 @@
         <v>25</v>
       </c>
       <c r="F31" s="22"/>
-      <c r="G31" s="24"/>
-      <c r="H31" s="24"/>
-      <c r="I31" s="25" t="str">
+      <c r="G31" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="H31" s="22"/>
+      <c r="I31" s="24" t="str">
         <f aca="false">IF(G31=E31,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J31" s="25"/>
-      <c r="K31" s="26"/>
-      <c r="L31" s="26"/>
+        <v>Pass</v>
+      </c>
+      <c r="J31" s="24"/>
+      <c r="K31" s="25"/>
+      <c r="L31" s="25"/>
     </row>
     <row r="32" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="21" t="n">
@@ -4515,22 +4721,24 @@
         <v>26</v>
       </c>
       <c r="C32" s="22"/>
-      <c r="D32" s="28" t="s">
+      <c r="D32" s="27" t="s">
         <v>27</v>
       </c>
       <c r="E32" s="15" t="s">
         <v>28</v>
       </c>
       <c r="F32" s="15"/>
-      <c r="G32" s="24"/>
-      <c r="H32" s="24"/>
-      <c r="I32" s="25" t="str">
+      <c r="G32" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="H32" s="15"/>
+      <c r="I32" s="24" t="str">
         <f aca="false">IF(G32=E32,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J32" s="25"/>
-      <c r="K32" s="26"/>
-      <c r="L32" s="26"/>
+        <v>Pass</v>
+      </c>
+      <c r="J32" s="24"/>
+      <c r="K32" s="25"/>
+      <c r="L32" s="25"/>
     </row>
     <row r="33" customFormat="false" ht="41.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="21"/>
@@ -4538,22 +4746,24 @@
         <v>29</v>
       </c>
       <c r="C33" s="22"/>
-      <c r="D33" s="29" t="s">
+      <c r="D33" s="28" t="s">
         <v>20</v>
       </c>
       <c r="E33" s="15" t="s">
         <v>21</v>
       </c>
       <c r="F33" s="15"/>
-      <c r="G33" s="24"/>
-      <c r="H33" s="24"/>
-      <c r="I33" s="25" t="str">
+      <c r="G33" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="H33" s="15"/>
+      <c r="I33" s="24" t="str">
         <f aca="false">IF(G33=E33,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J33" s="25"/>
-      <c r="K33" s="26"/>
-      <c r="L33" s="26"/>
+        <v>Pass</v>
+      </c>
+      <c r="J33" s="24"/>
+      <c r="K33" s="25"/>
+      <c r="L33" s="25"/>
     </row>
     <row r="34" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="21" t="n">
@@ -4563,22 +4773,24 @@
         <v>30</v>
       </c>
       <c r="C34" s="22"/>
-      <c r="D34" s="28" t="s">
+      <c r="D34" s="27" t="s">
         <v>31</v>
       </c>
       <c r="E34" s="15" t="s">
         <v>32</v>
       </c>
       <c r="F34" s="15"/>
-      <c r="G34" s="24"/>
-      <c r="H34" s="24"/>
-      <c r="I34" s="25" t="str">
+      <c r="G34" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="H34" s="15"/>
+      <c r="I34" s="24" t="str">
         <f aca="false">IF(G34=E34,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J34" s="25"/>
-      <c r="K34" s="26"/>
-      <c r="L34" s="26"/>
+        <v>Pass</v>
+      </c>
+      <c r="J34" s="24"/>
+      <c r="K34" s="25"/>
+      <c r="L34" s="25"/>
     </row>
     <row r="35" customFormat="false" ht="41.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="21"/>
@@ -4586,22 +4798,24 @@
         <v>29</v>
       </c>
       <c r="C35" s="22"/>
-      <c r="D35" s="29" t="s">
+      <c r="D35" s="28" t="s">
         <v>20</v>
       </c>
       <c r="E35" s="15" t="s">
         <v>21</v>
       </c>
       <c r="F35" s="15"/>
-      <c r="G35" s="24"/>
-      <c r="H35" s="24"/>
-      <c r="I35" s="25" t="str">
+      <c r="G35" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="H35" s="15"/>
+      <c r="I35" s="24" t="str">
         <f aca="false">IF(G35=E35,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J35" s="25"/>
-      <c r="K35" s="26"/>
-      <c r="L35" s="26"/>
+        <v>Pass</v>
+      </c>
+      <c r="J35" s="24"/>
+      <c r="K35" s="25"/>
+      <c r="L35" s="25"/>
     </row>
     <row r="36" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="21" t="n">
@@ -4611,22 +4825,24 @@
         <v>33</v>
       </c>
       <c r="C36" s="22"/>
-      <c r="D36" s="28" t="s">
+      <c r="D36" s="27" t="s">
         <v>34</v>
       </c>
       <c r="E36" s="15" t="s">
         <v>35</v>
       </c>
       <c r="F36" s="15"/>
-      <c r="G36" s="24"/>
-      <c r="H36" s="24"/>
-      <c r="I36" s="25" t="str">
+      <c r="G36" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="H36" s="15"/>
+      <c r="I36" s="24" t="str">
         <f aca="false">IF(G36=E36,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J36" s="25"/>
-      <c r="K36" s="26"/>
-      <c r="L36" s="26"/>
+        <v>Pass</v>
+      </c>
+      <c r="J36" s="24"/>
+      <c r="K36" s="25"/>
+      <c r="L36" s="25"/>
     </row>
     <row r="37" customFormat="false" ht="41.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="21" t="n">
@@ -4636,22 +4852,24 @@
         <v>29</v>
       </c>
       <c r="C37" s="22"/>
-      <c r="D37" s="29" t="s">
+      <c r="D37" s="28" t="s">
         <v>20</v>
       </c>
       <c r="E37" s="15" t="s">
         <v>21</v>
       </c>
       <c r="F37" s="15"/>
-      <c r="G37" s="24"/>
-      <c r="H37" s="24"/>
-      <c r="I37" s="25" t="str">
+      <c r="G37" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="H37" s="15"/>
+      <c r="I37" s="24" t="str">
         <f aca="false">IF(G37=E37,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J37" s="25"/>
-      <c r="K37" s="26"/>
-      <c r="L37" s="26"/>
+        <v>Pass</v>
+      </c>
+      <c r="J37" s="24"/>
+      <c r="K37" s="25"/>
+      <c r="L37" s="25"/>
     </row>
     <row r="38" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="21" t="n">
@@ -4661,22 +4879,24 @@
         <v>36</v>
       </c>
       <c r="C38" s="22"/>
-      <c r="D38" s="28" t="s">
+      <c r="D38" s="27" t="s">
         <v>37</v>
       </c>
       <c r="E38" s="15" t="s">
         <v>38</v>
       </c>
       <c r="F38" s="15"/>
-      <c r="G38" s="24"/>
-      <c r="H38" s="24"/>
-      <c r="I38" s="25" t="str">
+      <c r="G38" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="H38" s="15"/>
+      <c r="I38" s="24" t="str">
         <f aca="false">IF(G38=E38,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J38" s="25"/>
-      <c r="K38" s="26"/>
-      <c r="L38" s="26"/>
+        <v>Pass</v>
+      </c>
+      <c r="J38" s="24"/>
+      <c r="K38" s="25"/>
+      <c r="L38" s="25"/>
     </row>
     <row r="39" customFormat="false" ht="41.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="21" t="n">
@@ -4686,22 +4906,24 @@
         <v>29</v>
       </c>
       <c r="C39" s="22"/>
-      <c r="D39" s="29" t="s">
+      <c r="D39" s="28" t="s">
         <v>20</v>
       </c>
       <c r="E39" s="15" t="s">
         <v>21</v>
       </c>
       <c r="F39" s="15"/>
-      <c r="G39" s="24"/>
-      <c r="H39" s="24"/>
-      <c r="I39" s="25" t="str">
+      <c r="G39" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="H39" s="15"/>
+      <c r="I39" s="24" t="str">
         <f aca="false">IF(G39=E39,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J39" s="25"/>
-      <c r="K39" s="26"/>
-      <c r="L39" s="26"/>
+        <v>Pass</v>
+      </c>
+      <c r="J39" s="24"/>
+      <c r="K39" s="25"/>
+      <c r="L39" s="25"/>
     </row>
     <row r="40" customFormat="false" ht="41.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="21" t="n">
@@ -4711,22 +4933,24 @@
         <v>39</v>
       </c>
       <c r="C40" s="22"/>
-      <c r="D40" s="30" t="s">
+      <c r="D40" s="29" t="s">
         <v>40</v>
       </c>
       <c r="E40" s="22" t="s">
         <v>41</v>
       </c>
       <c r="F40" s="22"/>
-      <c r="G40" s="24"/>
-      <c r="H40" s="24"/>
-      <c r="I40" s="25" t="str">
+      <c r="G40" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="H40" s="22"/>
+      <c r="I40" s="24" t="str">
         <f aca="false">IF(G40=E40,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J40" s="25"/>
-      <c r="K40" s="31"/>
-      <c r="L40" s="31"/>
+        <v>Pass</v>
+      </c>
+      <c r="J40" s="24"/>
+      <c r="K40" s="30"/>
+      <c r="L40" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="168">
